--- a/classif_test.xlsx
+++ b/classif_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ251"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,106 @@
           <t>Orthogonal Ratio_y</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Min Red</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Min Green</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Min Blue</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Max Red</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Max Green</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Max Blue</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Red</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Green</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Blue</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Median Red</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Median Green</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Median Blue</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev Red</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev Green</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev Blue</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Perimeter</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Pixel Ratio</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Symmetry Index</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Orthogonal Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -782,6 +882,66 @@
         <v>63.63469866666667</v>
       </c>
       <c r="AQ2" t="n">
+        <v>0.8355886904891203</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>208</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>199</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>193</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>68.08574489687165</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>54.88274724719952</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>39.89196905869088</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>56</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>47.95539885174279</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>45.31119677847548</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>36.25074695743415</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.007428041666666667</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>63.63469866666667</v>
+      </c>
+      <c r="BK2" t="n">
         <v>0.8355886904891203</v>
       </c>
     </row>
@@ -837,6 +997,26 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -890,6 +1070,26 @@
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -943,6 +1143,26 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -996,6 +1216,26 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1049,6 +1289,26 @@
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1102,6 +1362,26 @@
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1155,6 +1435,26 @@
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1208,6 +1508,26 @@
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1261,6 +1581,26 @@
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1314,6 +1654,26 @@
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1367,6 +1727,26 @@
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1420,6 +1800,26 @@
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1473,6 +1873,26 @@
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1526,6 +1946,26 @@
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1579,6 +2019,26 @@
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1632,6 +2092,26 @@
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1685,6 +2165,26 @@
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1738,6 +2238,26 @@
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1791,6 +2311,26 @@
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1844,6 +2384,26 @@
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1897,6 +2457,26 @@
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1950,6 +2530,26 @@
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2003,6 +2603,26 @@
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2056,6 +2676,26 @@
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2109,6 +2749,26 @@
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2162,6 +2822,26 @@
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2215,6 +2895,26 @@
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2268,6 +2968,26 @@
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2321,6 +3041,26 @@
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2374,6 +3114,26 @@
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2427,6 +3187,26 @@
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2480,6 +3260,26 @@
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2533,6 +3333,26 @@
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2586,6 +3406,26 @@
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2639,6 +3479,26 @@
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2692,6 +3552,26 @@
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2745,6 +3625,26 @@
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2798,6 +3698,26 @@
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2851,6 +3771,26 @@
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2904,6 +3844,26 @@
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2957,6 +3917,26 @@
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3010,6 +3990,26 @@
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3063,6 +4063,26 @@
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3116,6 +4136,26 @@
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3169,6 +4209,26 @@
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3222,6 +4282,26 @@
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3275,6 +4355,26 @@
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3328,6 +4428,26 @@
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr"/>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3381,6 +4501,26 @@
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3434,6 +4574,26 @@
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3487,6 +4647,26 @@
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3540,6 +4720,26 @@
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3593,6 +4793,26 @@
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
+      <c r="BF55" t="inlineStr"/>
+      <c r="BG55" t="inlineStr"/>
+      <c r="BH55" t="inlineStr"/>
+      <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="inlineStr"/>
+      <c r="BK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3646,6 +4866,26 @@
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr"/>
+      <c r="BH56" t="inlineStr"/>
+      <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3699,6 +4939,26 @@
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3752,6 +5012,26 @@
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3805,6 +5085,26 @@
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="inlineStr"/>
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr"/>
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="inlineStr"/>
+      <c r="BK59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3858,6 +5158,26 @@
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr"/>
+      <c r="BG60" t="inlineStr"/>
+      <c r="BH60" t="inlineStr"/>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3911,6 +5231,26 @@
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3964,6 +5304,26 @@
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
       <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="inlineStr"/>
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4017,6 +5377,26 @@
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="inlineStr"/>
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
+      <c r="BH63" t="inlineStr"/>
+      <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4070,6 +5450,26 @@
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="inlineStr"/>
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr"/>
+      <c r="BE64" t="inlineStr"/>
+      <c r="BF64" t="inlineStr"/>
+      <c r="BG64" t="inlineStr"/>
+      <c r="BH64" t="inlineStr"/>
+      <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr"/>
+      <c r="BK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4123,6 +5523,26 @@
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="inlineStr"/>
+      <c r="BH65" t="inlineStr"/>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4176,6 +5596,26 @@
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4229,6 +5669,26 @@
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="inlineStr"/>
+      <c r="BH67" t="inlineStr"/>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4282,6 +5742,26 @@
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
+      <c r="AZ68" t="inlineStr"/>
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="inlineStr"/>
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="inlineStr"/>
+      <c r="BE68" t="inlineStr"/>
+      <c r="BF68" t="inlineStr"/>
+      <c r="BG68" t="inlineStr"/>
+      <c r="BH68" t="inlineStr"/>
+      <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="inlineStr"/>
+      <c r="BK68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4335,6 +5815,26 @@
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
       <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
+      <c r="AZ69" t="inlineStr"/>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="inlineStr"/>
+      <c r="BE69" t="inlineStr"/>
+      <c r="BF69" t="inlineStr"/>
+      <c r="BG69" t="inlineStr"/>
+      <c r="BH69" t="inlineStr"/>
+      <c r="BI69" t="inlineStr"/>
+      <c r="BJ69" t="inlineStr"/>
+      <c r="BK69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4388,6 +5888,26 @@
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AU70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
+      <c r="AZ70" t="inlineStr"/>
+      <c r="BA70" t="inlineStr"/>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="inlineStr"/>
+      <c r="BE70" t="inlineStr"/>
+      <c r="BF70" t="inlineStr"/>
+      <c r="BG70" t="inlineStr"/>
+      <c r="BH70" t="inlineStr"/>
+      <c r="BI70" t="inlineStr"/>
+      <c r="BJ70" t="inlineStr"/>
+      <c r="BK70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4441,6 +5961,26 @@
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4494,6 +6034,26 @@
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AU72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="inlineStr"/>
+      <c r="BJ72" t="inlineStr"/>
+      <c r="BK72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4547,6 +6107,26 @@
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4600,6 +6180,26 @@
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AU74" t="inlineStr"/>
+      <c r="AV74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr"/>
+      <c r="AY74" t="inlineStr"/>
+      <c r="AZ74" t="inlineStr"/>
+      <c r="BA74" t="inlineStr"/>
+      <c r="BB74" t="inlineStr"/>
+      <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="inlineStr"/>
+      <c r="BE74" t="inlineStr"/>
+      <c r="BF74" t="inlineStr"/>
+      <c r="BG74" t="inlineStr"/>
+      <c r="BH74" t="inlineStr"/>
+      <c r="BI74" t="inlineStr"/>
+      <c r="BJ74" t="inlineStr"/>
+      <c r="BK74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4653,6 +6253,26 @@
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AU75" t="inlineStr"/>
+      <c r="AV75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="inlineStr"/>
+      <c r="AZ75" t="inlineStr"/>
+      <c r="BA75" t="inlineStr"/>
+      <c r="BB75" t="inlineStr"/>
+      <c r="BC75" t="inlineStr"/>
+      <c r="BD75" t="inlineStr"/>
+      <c r="BE75" t="inlineStr"/>
+      <c r="BF75" t="inlineStr"/>
+      <c r="BG75" t="inlineStr"/>
+      <c r="BH75" t="inlineStr"/>
+      <c r="BI75" t="inlineStr"/>
+      <c r="BJ75" t="inlineStr"/>
+      <c r="BK75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4706,6 +6326,26 @@
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
+      <c r="AS76" t="inlineStr"/>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AU76" t="inlineStr"/>
+      <c r="AV76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr"/>
+      <c r="AX76" t="inlineStr"/>
+      <c r="AY76" t="inlineStr"/>
+      <c r="AZ76" t="inlineStr"/>
+      <c r="BA76" t="inlineStr"/>
+      <c r="BB76" t="inlineStr"/>
+      <c r="BC76" t="inlineStr"/>
+      <c r="BD76" t="inlineStr"/>
+      <c r="BE76" t="inlineStr"/>
+      <c r="BF76" t="inlineStr"/>
+      <c r="BG76" t="inlineStr"/>
+      <c r="BH76" t="inlineStr"/>
+      <c r="BI76" t="inlineStr"/>
+      <c r="BJ76" t="inlineStr"/>
+      <c r="BK76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4759,6 +6399,26 @@
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AU77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
+      <c r="AZ77" t="inlineStr"/>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
+      <c r="BI77" t="inlineStr"/>
+      <c r="BJ77" t="inlineStr"/>
+      <c r="BK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -4812,6 +6472,26 @@
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AU78" t="inlineStr"/>
+      <c r="AV78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
+      <c r="BH78" t="inlineStr"/>
+      <c r="BI78" t="inlineStr"/>
+      <c r="BJ78" t="inlineStr"/>
+      <c r="BK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -4865,6 +6545,26 @@
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="inlineStr"/>
+      <c r="BB79" t="inlineStr"/>
+      <c r="BC79" t="inlineStr"/>
+      <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="inlineStr"/>
+      <c r="BF79" t="inlineStr"/>
+      <c r="BG79" t="inlineStr"/>
+      <c r="BH79" t="inlineStr"/>
+      <c r="BI79" t="inlineStr"/>
+      <c r="BJ79" t="inlineStr"/>
+      <c r="BK79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -4918,6 +6618,26 @@
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AU80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
+      <c r="AZ80" t="inlineStr"/>
+      <c r="BA80" t="inlineStr"/>
+      <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
+      <c r="BD80" t="inlineStr"/>
+      <c r="BE80" t="inlineStr"/>
+      <c r="BF80" t="inlineStr"/>
+      <c r="BG80" t="inlineStr"/>
+      <c r="BH80" t="inlineStr"/>
+      <c r="BI80" t="inlineStr"/>
+      <c r="BJ80" t="inlineStr"/>
+      <c r="BK80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -4971,6 +6691,26 @@
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AU81" t="inlineStr"/>
+      <c r="AV81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr"/>
+      <c r="AX81" t="inlineStr"/>
+      <c r="AY81" t="inlineStr"/>
+      <c r="AZ81" t="inlineStr"/>
+      <c r="BA81" t="inlineStr"/>
+      <c r="BB81" t="inlineStr"/>
+      <c r="BC81" t="inlineStr"/>
+      <c r="BD81" t="inlineStr"/>
+      <c r="BE81" t="inlineStr"/>
+      <c r="BF81" t="inlineStr"/>
+      <c r="BG81" t="inlineStr"/>
+      <c r="BH81" t="inlineStr"/>
+      <c r="BI81" t="inlineStr"/>
+      <c r="BJ81" t="inlineStr"/>
+      <c r="BK81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -5024,6 +6764,26 @@
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="inlineStr"/>
+      <c r="AS82" t="inlineStr"/>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AU82" t="inlineStr"/>
+      <c r="AV82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr"/>
+      <c r="AX82" t="inlineStr"/>
+      <c r="AY82" t="inlineStr"/>
+      <c r="AZ82" t="inlineStr"/>
+      <c r="BA82" t="inlineStr"/>
+      <c r="BB82" t="inlineStr"/>
+      <c r="BC82" t="inlineStr"/>
+      <c r="BD82" t="inlineStr"/>
+      <c r="BE82" t="inlineStr"/>
+      <c r="BF82" t="inlineStr"/>
+      <c r="BG82" t="inlineStr"/>
+      <c r="BH82" t="inlineStr"/>
+      <c r="BI82" t="inlineStr"/>
+      <c r="BJ82" t="inlineStr"/>
+      <c r="BK82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -5077,6 +6837,26 @@
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AU83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
+      <c r="AZ83" t="inlineStr"/>
+      <c r="BA83" t="inlineStr"/>
+      <c r="BB83" t="inlineStr"/>
+      <c r="BC83" t="inlineStr"/>
+      <c r="BD83" t="inlineStr"/>
+      <c r="BE83" t="inlineStr"/>
+      <c r="BF83" t="inlineStr"/>
+      <c r="BG83" t="inlineStr"/>
+      <c r="BH83" t="inlineStr"/>
+      <c r="BI83" t="inlineStr"/>
+      <c r="BJ83" t="inlineStr"/>
+      <c r="BK83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5130,6 +6910,26 @@
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AU84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr"/>
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr"/>
+      <c r="AZ84" t="inlineStr"/>
+      <c r="BA84" t="inlineStr"/>
+      <c r="BB84" t="inlineStr"/>
+      <c r="BC84" t="inlineStr"/>
+      <c r="BD84" t="inlineStr"/>
+      <c r="BE84" t="inlineStr"/>
+      <c r="BF84" t="inlineStr"/>
+      <c r="BG84" t="inlineStr"/>
+      <c r="BH84" t="inlineStr"/>
+      <c r="BI84" t="inlineStr"/>
+      <c r="BJ84" t="inlineStr"/>
+      <c r="BK84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5183,6 +6983,26 @@
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
+      <c r="AS85" t="inlineStr"/>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AU85" t="inlineStr"/>
+      <c r="AV85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr"/>
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="inlineStr"/>
+      <c r="AZ85" t="inlineStr"/>
+      <c r="BA85" t="inlineStr"/>
+      <c r="BB85" t="inlineStr"/>
+      <c r="BC85" t="inlineStr"/>
+      <c r="BD85" t="inlineStr"/>
+      <c r="BE85" t="inlineStr"/>
+      <c r="BF85" t="inlineStr"/>
+      <c r="BG85" t="inlineStr"/>
+      <c r="BH85" t="inlineStr"/>
+      <c r="BI85" t="inlineStr"/>
+      <c r="BJ85" t="inlineStr"/>
+      <c r="BK85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5236,6 +7056,26 @@
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
+      <c r="AS86" t="inlineStr"/>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="inlineStr"/>
+      <c r="AY86" t="inlineStr"/>
+      <c r="AZ86" t="inlineStr"/>
+      <c r="BA86" t="inlineStr"/>
+      <c r="BB86" t="inlineStr"/>
+      <c r="BC86" t="inlineStr"/>
+      <c r="BD86" t="inlineStr"/>
+      <c r="BE86" t="inlineStr"/>
+      <c r="BF86" t="inlineStr"/>
+      <c r="BG86" t="inlineStr"/>
+      <c r="BH86" t="inlineStr"/>
+      <c r="BI86" t="inlineStr"/>
+      <c r="BJ86" t="inlineStr"/>
+      <c r="BK86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5289,6 +7129,26 @@
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
       <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
+      <c r="AS87" t="inlineStr"/>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AU87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr"/>
+      <c r="AZ87" t="inlineStr"/>
+      <c r="BA87" t="inlineStr"/>
+      <c r="BB87" t="inlineStr"/>
+      <c r="BC87" t="inlineStr"/>
+      <c r="BD87" t="inlineStr"/>
+      <c r="BE87" t="inlineStr"/>
+      <c r="BF87" t="inlineStr"/>
+      <c r="BG87" t="inlineStr"/>
+      <c r="BH87" t="inlineStr"/>
+      <c r="BI87" t="inlineStr"/>
+      <c r="BJ87" t="inlineStr"/>
+      <c r="BK87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5342,6 +7202,26 @@
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AU88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
+      <c r="AZ88" t="inlineStr"/>
+      <c r="BA88" t="inlineStr"/>
+      <c r="BB88" t="inlineStr"/>
+      <c r="BC88" t="inlineStr"/>
+      <c r="BD88" t="inlineStr"/>
+      <c r="BE88" t="inlineStr"/>
+      <c r="BF88" t="inlineStr"/>
+      <c r="BG88" t="inlineStr"/>
+      <c r="BH88" t="inlineStr"/>
+      <c r="BI88" t="inlineStr"/>
+      <c r="BJ88" t="inlineStr"/>
+      <c r="BK88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5395,6 +7275,26 @@
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
+      <c r="AS89" t="inlineStr"/>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AU89" t="inlineStr"/>
+      <c r="AV89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr"/>
+      <c r="AX89" t="inlineStr"/>
+      <c r="AY89" t="inlineStr"/>
+      <c r="AZ89" t="inlineStr"/>
+      <c r="BA89" t="inlineStr"/>
+      <c r="BB89" t="inlineStr"/>
+      <c r="BC89" t="inlineStr"/>
+      <c r="BD89" t="inlineStr"/>
+      <c r="BE89" t="inlineStr"/>
+      <c r="BF89" t="inlineStr"/>
+      <c r="BG89" t="inlineStr"/>
+      <c r="BH89" t="inlineStr"/>
+      <c r="BI89" t="inlineStr"/>
+      <c r="BJ89" t="inlineStr"/>
+      <c r="BK89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5448,6 +7348,26 @@
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
+      <c r="AS90" t="inlineStr"/>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AU90" t="inlineStr"/>
+      <c r="AV90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr"/>
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="inlineStr"/>
+      <c r="AZ90" t="inlineStr"/>
+      <c r="BA90" t="inlineStr"/>
+      <c r="BB90" t="inlineStr"/>
+      <c r="BC90" t="inlineStr"/>
+      <c r="BD90" t="inlineStr"/>
+      <c r="BE90" t="inlineStr"/>
+      <c r="BF90" t="inlineStr"/>
+      <c r="BG90" t="inlineStr"/>
+      <c r="BH90" t="inlineStr"/>
+      <c r="BI90" t="inlineStr"/>
+      <c r="BJ90" t="inlineStr"/>
+      <c r="BK90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5501,6 +7421,26 @@
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
       <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
+      <c r="AS91" t="inlineStr"/>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AU91" t="inlineStr"/>
+      <c r="AV91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr"/>
+      <c r="AZ91" t="inlineStr"/>
+      <c r="BA91" t="inlineStr"/>
+      <c r="BB91" t="inlineStr"/>
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="inlineStr"/>
+      <c r="BE91" t="inlineStr"/>
+      <c r="BF91" t="inlineStr"/>
+      <c r="BG91" t="inlineStr"/>
+      <c r="BH91" t="inlineStr"/>
+      <c r="BI91" t="inlineStr"/>
+      <c r="BJ91" t="inlineStr"/>
+      <c r="BK91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5554,6 +7494,26 @@
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
+      <c r="AS92" t="inlineStr"/>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AU92" t="inlineStr"/>
+      <c r="AV92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="inlineStr"/>
+      <c r="AY92" t="inlineStr"/>
+      <c r="AZ92" t="inlineStr"/>
+      <c r="BA92" t="inlineStr"/>
+      <c r="BB92" t="inlineStr"/>
+      <c r="BC92" t="inlineStr"/>
+      <c r="BD92" t="inlineStr"/>
+      <c r="BE92" t="inlineStr"/>
+      <c r="BF92" t="inlineStr"/>
+      <c r="BG92" t="inlineStr"/>
+      <c r="BH92" t="inlineStr"/>
+      <c r="BI92" t="inlineStr"/>
+      <c r="BJ92" t="inlineStr"/>
+      <c r="BK92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5607,6 +7567,26 @@
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
+      <c r="AS93" t="inlineStr"/>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AU93" t="inlineStr"/>
+      <c r="AV93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr"/>
+      <c r="AY93" t="inlineStr"/>
+      <c r="AZ93" t="inlineStr"/>
+      <c r="BA93" t="inlineStr"/>
+      <c r="BB93" t="inlineStr"/>
+      <c r="BC93" t="inlineStr"/>
+      <c r="BD93" t="inlineStr"/>
+      <c r="BE93" t="inlineStr"/>
+      <c r="BF93" t="inlineStr"/>
+      <c r="BG93" t="inlineStr"/>
+      <c r="BH93" t="inlineStr"/>
+      <c r="BI93" t="inlineStr"/>
+      <c r="BJ93" t="inlineStr"/>
+      <c r="BK93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5660,6 +7640,26 @@
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
+      <c r="AZ94" t="inlineStr"/>
+      <c r="BA94" t="inlineStr"/>
+      <c r="BB94" t="inlineStr"/>
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr"/>
+      <c r="BE94" t="inlineStr"/>
+      <c r="BF94" t="inlineStr"/>
+      <c r="BG94" t="inlineStr"/>
+      <c r="BH94" t="inlineStr"/>
+      <c r="BI94" t="inlineStr"/>
+      <c r="BJ94" t="inlineStr"/>
+      <c r="BK94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -5713,6 +7713,26 @@
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
+      <c r="AS95" t="inlineStr"/>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AU95" t="inlineStr"/>
+      <c r="AV95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr"/>
+      <c r="AX95" t="inlineStr"/>
+      <c r="AY95" t="inlineStr"/>
+      <c r="AZ95" t="inlineStr"/>
+      <c r="BA95" t="inlineStr"/>
+      <c r="BB95" t="inlineStr"/>
+      <c r="BC95" t="inlineStr"/>
+      <c r="BD95" t="inlineStr"/>
+      <c r="BE95" t="inlineStr"/>
+      <c r="BF95" t="inlineStr"/>
+      <c r="BG95" t="inlineStr"/>
+      <c r="BH95" t="inlineStr"/>
+      <c r="BI95" t="inlineStr"/>
+      <c r="BJ95" t="inlineStr"/>
+      <c r="BK95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -5766,6 +7786,26 @@
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
+      <c r="AS96" t="inlineStr"/>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="inlineStr"/>
+      <c r="AY96" t="inlineStr"/>
+      <c r="AZ96" t="inlineStr"/>
+      <c r="BA96" t="inlineStr"/>
+      <c r="BB96" t="inlineStr"/>
+      <c r="BC96" t="inlineStr"/>
+      <c r="BD96" t="inlineStr"/>
+      <c r="BE96" t="inlineStr"/>
+      <c r="BF96" t="inlineStr"/>
+      <c r="BG96" t="inlineStr"/>
+      <c r="BH96" t="inlineStr"/>
+      <c r="BI96" t="inlineStr"/>
+      <c r="BJ96" t="inlineStr"/>
+      <c r="BK96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -5819,6 +7859,26 @@
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
       <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
+      <c r="AS97" t="inlineStr"/>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AU97" t="inlineStr"/>
+      <c r="AV97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr"/>
+      <c r="AY97" t="inlineStr"/>
+      <c r="AZ97" t="inlineStr"/>
+      <c r="BA97" t="inlineStr"/>
+      <c r="BB97" t="inlineStr"/>
+      <c r="BC97" t="inlineStr"/>
+      <c r="BD97" t="inlineStr"/>
+      <c r="BE97" t="inlineStr"/>
+      <c r="BF97" t="inlineStr"/>
+      <c r="BG97" t="inlineStr"/>
+      <c r="BH97" t="inlineStr"/>
+      <c r="BI97" t="inlineStr"/>
+      <c r="BJ97" t="inlineStr"/>
+      <c r="BK97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -5872,6 +7932,26 @@
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
       <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="inlineStr"/>
+      <c r="AS98" t="inlineStr"/>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AU98" t="inlineStr"/>
+      <c r="AV98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr"/>
+      <c r="AX98" t="inlineStr"/>
+      <c r="AY98" t="inlineStr"/>
+      <c r="AZ98" t="inlineStr"/>
+      <c r="BA98" t="inlineStr"/>
+      <c r="BB98" t="inlineStr"/>
+      <c r="BC98" t="inlineStr"/>
+      <c r="BD98" t="inlineStr"/>
+      <c r="BE98" t="inlineStr"/>
+      <c r="BF98" t="inlineStr"/>
+      <c r="BG98" t="inlineStr"/>
+      <c r="BH98" t="inlineStr"/>
+      <c r="BI98" t="inlineStr"/>
+      <c r="BJ98" t="inlineStr"/>
+      <c r="BK98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -5925,6 +8005,26 @@
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="inlineStr"/>
+      <c r="AS99" t="inlineStr"/>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AU99" t="inlineStr"/>
+      <c r="AV99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr"/>
+      <c r="AX99" t="inlineStr"/>
+      <c r="AY99" t="inlineStr"/>
+      <c r="AZ99" t="inlineStr"/>
+      <c r="BA99" t="inlineStr"/>
+      <c r="BB99" t="inlineStr"/>
+      <c r="BC99" t="inlineStr"/>
+      <c r="BD99" t="inlineStr"/>
+      <c r="BE99" t="inlineStr"/>
+      <c r="BF99" t="inlineStr"/>
+      <c r="BG99" t="inlineStr"/>
+      <c r="BH99" t="inlineStr"/>
+      <c r="BI99" t="inlineStr"/>
+      <c r="BJ99" t="inlineStr"/>
+      <c r="BK99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -5978,6 +8078,26 @@
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
       <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="inlineStr"/>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AU100" t="inlineStr"/>
+      <c r="AV100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr"/>
+      <c r="AX100" t="inlineStr"/>
+      <c r="AY100" t="inlineStr"/>
+      <c r="AZ100" t="inlineStr"/>
+      <c r="BA100" t="inlineStr"/>
+      <c r="BB100" t="inlineStr"/>
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="inlineStr"/>
+      <c r="BE100" t="inlineStr"/>
+      <c r="BF100" t="inlineStr"/>
+      <c r="BG100" t="inlineStr"/>
+      <c r="BH100" t="inlineStr"/>
+      <c r="BI100" t="inlineStr"/>
+      <c r="BJ100" t="inlineStr"/>
+      <c r="BK100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -6031,6 +8151,26 @@
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
       <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="inlineStr"/>
+      <c r="AS101" t="inlineStr"/>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AU101" t="inlineStr"/>
+      <c r="AV101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr"/>
+      <c r="AX101" t="inlineStr"/>
+      <c r="AY101" t="inlineStr"/>
+      <c r="AZ101" t="inlineStr"/>
+      <c r="BA101" t="inlineStr"/>
+      <c r="BB101" t="inlineStr"/>
+      <c r="BC101" t="inlineStr"/>
+      <c r="BD101" t="inlineStr"/>
+      <c r="BE101" t="inlineStr"/>
+      <c r="BF101" t="inlineStr"/>
+      <c r="BG101" t="inlineStr"/>
+      <c r="BH101" t="inlineStr"/>
+      <c r="BI101" t="inlineStr"/>
+      <c r="BJ101" t="inlineStr"/>
+      <c r="BK101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -6084,6 +8224,26 @@
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
       <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="inlineStr"/>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AU102" t="inlineStr"/>
+      <c r="AV102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr"/>
+      <c r="AX102" t="inlineStr"/>
+      <c r="AY102" t="inlineStr"/>
+      <c r="AZ102" t="inlineStr"/>
+      <c r="BA102" t="inlineStr"/>
+      <c r="BB102" t="inlineStr"/>
+      <c r="BC102" t="inlineStr"/>
+      <c r="BD102" t="inlineStr"/>
+      <c r="BE102" t="inlineStr"/>
+      <c r="BF102" t="inlineStr"/>
+      <c r="BG102" t="inlineStr"/>
+      <c r="BH102" t="inlineStr"/>
+      <c r="BI102" t="inlineStr"/>
+      <c r="BJ102" t="inlineStr"/>
+      <c r="BK102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -6137,6 +8297,26 @@
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="inlineStr"/>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AU103" t="inlineStr"/>
+      <c r="AV103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr"/>
+      <c r="AX103" t="inlineStr"/>
+      <c r="AY103" t="inlineStr"/>
+      <c r="AZ103" t="inlineStr"/>
+      <c r="BA103" t="inlineStr"/>
+      <c r="BB103" t="inlineStr"/>
+      <c r="BC103" t="inlineStr"/>
+      <c r="BD103" t="inlineStr"/>
+      <c r="BE103" t="inlineStr"/>
+      <c r="BF103" t="inlineStr"/>
+      <c r="BG103" t="inlineStr"/>
+      <c r="BH103" t="inlineStr"/>
+      <c r="BI103" t="inlineStr"/>
+      <c r="BJ103" t="inlineStr"/>
+      <c r="BK103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -6190,6 +8370,26 @@
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
       <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr"/>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AU104" t="inlineStr"/>
+      <c r="AV104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr"/>
+      <c r="AX104" t="inlineStr"/>
+      <c r="AY104" t="inlineStr"/>
+      <c r="AZ104" t="inlineStr"/>
+      <c r="BA104" t="inlineStr"/>
+      <c r="BB104" t="inlineStr"/>
+      <c r="BC104" t="inlineStr"/>
+      <c r="BD104" t="inlineStr"/>
+      <c r="BE104" t="inlineStr"/>
+      <c r="BF104" t="inlineStr"/>
+      <c r="BG104" t="inlineStr"/>
+      <c r="BH104" t="inlineStr"/>
+      <c r="BI104" t="inlineStr"/>
+      <c r="BJ104" t="inlineStr"/>
+      <c r="BK104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -6243,6 +8443,26 @@
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="inlineStr"/>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AU105" t="inlineStr"/>
+      <c r="AV105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr"/>
+      <c r="AX105" t="inlineStr"/>
+      <c r="AY105" t="inlineStr"/>
+      <c r="AZ105" t="inlineStr"/>
+      <c r="BA105" t="inlineStr"/>
+      <c r="BB105" t="inlineStr"/>
+      <c r="BC105" t="inlineStr"/>
+      <c r="BD105" t="inlineStr"/>
+      <c r="BE105" t="inlineStr"/>
+      <c r="BF105" t="inlineStr"/>
+      <c r="BG105" t="inlineStr"/>
+      <c r="BH105" t="inlineStr"/>
+      <c r="BI105" t="inlineStr"/>
+      <c r="BJ105" t="inlineStr"/>
+      <c r="BK105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -6296,6 +8516,26 @@
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
       <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr"/>
+      <c r="AS106" t="inlineStr"/>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AU106" t="inlineStr"/>
+      <c r="AV106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr"/>
+      <c r="AX106" t="inlineStr"/>
+      <c r="AY106" t="inlineStr"/>
+      <c r="AZ106" t="inlineStr"/>
+      <c r="BA106" t="inlineStr"/>
+      <c r="BB106" t="inlineStr"/>
+      <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="inlineStr"/>
+      <c r="BE106" t="inlineStr"/>
+      <c r="BF106" t="inlineStr"/>
+      <c r="BG106" t="inlineStr"/>
+      <c r="BH106" t="inlineStr"/>
+      <c r="BI106" t="inlineStr"/>
+      <c r="BJ106" t="inlineStr"/>
+      <c r="BK106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -6349,6 +8589,26 @@
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr"/>
+      <c r="AS107" t="inlineStr"/>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AU107" t="inlineStr"/>
+      <c r="AV107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr"/>
+      <c r="AX107" t="inlineStr"/>
+      <c r="AY107" t="inlineStr"/>
+      <c r="AZ107" t="inlineStr"/>
+      <c r="BA107" t="inlineStr"/>
+      <c r="BB107" t="inlineStr"/>
+      <c r="BC107" t="inlineStr"/>
+      <c r="BD107" t="inlineStr"/>
+      <c r="BE107" t="inlineStr"/>
+      <c r="BF107" t="inlineStr"/>
+      <c r="BG107" t="inlineStr"/>
+      <c r="BH107" t="inlineStr"/>
+      <c r="BI107" t="inlineStr"/>
+      <c r="BJ107" t="inlineStr"/>
+      <c r="BK107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -6402,6 +8662,26 @@
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="inlineStr"/>
+      <c r="AS108" t="inlineStr"/>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AU108" t="inlineStr"/>
+      <c r="AV108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr"/>
+      <c r="AX108" t="inlineStr"/>
+      <c r="AY108" t="inlineStr"/>
+      <c r="AZ108" t="inlineStr"/>
+      <c r="BA108" t="inlineStr"/>
+      <c r="BB108" t="inlineStr"/>
+      <c r="BC108" t="inlineStr"/>
+      <c r="BD108" t="inlineStr"/>
+      <c r="BE108" t="inlineStr"/>
+      <c r="BF108" t="inlineStr"/>
+      <c r="BG108" t="inlineStr"/>
+      <c r="BH108" t="inlineStr"/>
+      <c r="BI108" t="inlineStr"/>
+      <c r="BJ108" t="inlineStr"/>
+      <c r="BK108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -6455,6 +8735,26 @@
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="inlineStr"/>
+      <c r="AS109" t="inlineStr"/>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AU109" t="inlineStr"/>
+      <c r="AV109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr"/>
+      <c r="AX109" t="inlineStr"/>
+      <c r="AY109" t="inlineStr"/>
+      <c r="AZ109" t="inlineStr"/>
+      <c r="BA109" t="inlineStr"/>
+      <c r="BB109" t="inlineStr"/>
+      <c r="BC109" t="inlineStr"/>
+      <c r="BD109" t="inlineStr"/>
+      <c r="BE109" t="inlineStr"/>
+      <c r="BF109" t="inlineStr"/>
+      <c r="BG109" t="inlineStr"/>
+      <c r="BH109" t="inlineStr"/>
+      <c r="BI109" t="inlineStr"/>
+      <c r="BJ109" t="inlineStr"/>
+      <c r="BK109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -6508,6 +8808,26 @@
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr"/>
       <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="inlineStr"/>
+      <c r="AS110" t="inlineStr"/>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AU110" t="inlineStr"/>
+      <c r="AV110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr"/>
+      <c r="AX110" t="inlineStr"/>
+      <c r="AY110" t="inlineStr"/>
+      <c r="AZ110" t="inlineStr"/>
+      <c r="BA110" t="inlineStr"/>
+      <c r="BB110" t="inlineStr"/>
+      <c r="BC110" t="inlineStr"/>
+      <c r="BD110" t="inlineStr"/>
+      <c r="BE110" t="inlineStr"/>
+      <c r="BF110" t="inlineStr"/>
+      <c r="BG110" t="inlineStr"/>
+      <c r="BH110" t="inlineStr"/>
+      <c r="BI110" t="inlineStr"/>
+      <c r="BJ110" t="inlineStr"/>
+      <c r="BK110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -6561,6 +8881,26 @@
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="inlineStr"/>
+      <c r="AS111" t="inlineStr"/>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AU111" t="inlineStr"/>
+      <c r="AV111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr"/>
+      <c r="AX111" t="inlineStr"/>
+      <c r="AY111" t="inlineStr"/>
+      <c r="AZ111" t="inlineStr"/>
+      <c r="BA111" t="inlineStr"/>
+      <c r="BB111" t="inlineStr"/>
+      <c r="BC111" t="inlineStr"/>
+      <c r="BD111" t="inlineStr"/>
+      <c r="BE111" t="inlineStr"/>
+      <c r="BF111" t="inlineStr"/>
+      <c r="BG111" t="inlineStr"/>
+      <c r="BH111" t="inlineStr"/>
+      <c r="BI111" t="inlineStr"/>
+      <c r="BJ111" t="inlineStr"/>
+      <c r="BK111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -6614,6 +8954,26 @@
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
       <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="inlineStr"/>
+      <c r="AS112" t="inlineStr"/>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AU112" t="inlineStr"/>
+      <c r="AV112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr"/>
+      <c r="AX112" t="inlineStr"/>
+      <c r="AY112" t="inlineStr"/>
+      <c r="AZ112" t="inlineStr"/>
+      <c r="BA112" t="inlineStr"/>
+      <c r="BB112" t="inlineStr"/>
+      <c r="BC112" t="inlineStr"/>
+      <c r="BD112" t="inlineStr"/>
+      <c r="BE112" t="inlineStr"/>
+      <c r="BF112" t="inlineStr"/>
+      <c r="BG112" t="inlineStr"/>
+      <c r="BH112" t="inlineStr"/>
+      <c r="BI112" t="inlineStr"/>
+      <c r="BJ112" t="inlineStr"/>
+      <c r="BK112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -6667,6 +9027,26 @@
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="inlineStr"/>
+      <c r="AS113" t="inlineStr"/>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AU113" t="inlineStr"/>
+      <c r="AV113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr"/>
+      <c r="AX113" t="inlineStr"/>
+      <c r="AY113" t="inlineStr"/>
+      <c r="AZ113" t="inlineStr"/>
+      <c r="BA113" t="inlineStr"/>
+      <c r="BB113" t="inlineStr"/>
+      <c r="BC113" t="inlineStr"/>
+      <c r="BD113" t="inlineStr"/>
+      <c r="BE113" t="inlineStr"/>
+      <c r="BF113" t="inlineStr"/>
+      <c r="BG113" t="inlineStr"/>
+      <c r="BH113" t="inlineStr"/>
+      <c r="BI113" t="inlineStr"/>
+      <c r="BJ113" t="inlineStr"/>
+      <c r="BK113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -6720,6 +9100,26 @@
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="inlineStr"/>
+      <c r="AS114" t="inlineStr"/>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AU114" t="inlineStr"/>
+      <c r="AV114" t="inlineStr"/>
+      <c r="AW114" t="inlineStr"/>
+      <c r="AX114" t="inlineStr"/>
+      <c r="AY114" t="inlineStr"/>
+      <c r="AZ114" t="inlineStr"/>
+      <c r="BA114" t="inlineStr"/>
+      <c r="BB114" t="inlineStr"/>
+      <c r="BC114" t="inlineStr"/>
+      <c r="BD114" t="inlineStr"/>
+      <c r="BE114" t="inlineStr"/>
+      <c r="BF114" t="inlineStr"/>
+      <c r="BG114" t="inlineStr"/>
+      <c r="BH114" t="inlineStr"/>
+      <c r="BI114" t="inlineStr"/>
+      <c r="BJ114" t="inlineStr"/>
+      <c r="BK114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -6773,6 +9173,26 @@
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr"/>
       <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="inlineStr"/>
+      <c r="AS115" t="inlineStr"/>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AU115" t="inlineStr"/>
+      <c r="AV115" t="inlineStr"/>
+      <c r="AW115" t="inlineStr"/>
+      <c r="AX115" t="inlineStr"/>
+      <c r="AY115" t="inlineStr"/>
+      <c r="AZ115" t="inlineStr"/>
+      <c r="BA115" t="inlineStr"/>
+      <c r="BB115" t="inlineStr"/>
+      <c r="BC115" t="inlineStr"/>
+      <c r="BD115" t="inlineStr"/>
+      <c r="BE115" t="inlineStr"/>
+      <c r="BF115" t="inlineStr"/>
+      <c r="BG115" t="inlineStr"/>
+      <c r="BH115" t="inlineStr"/>
+      <c r="BI115" t="inlineStr"/>
+      <c r="BJ115" t="inlineStr"/>
+      <c r="BK115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -6826,6 +9246,26 @@
       <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr"/>
       <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="inlineStr"/>
+      <c r="AS116" t="inlineStr"/>
+      <c r="AT116" t="inlineStr"/>
+      <c r="AU116" t="inlineStr"/>
+      <c r="AV116" t="inlineStr"/>
+      <c r="AW116" t="inlineStr"/>
+      <c r="AX116" t="inlineStr"/>
+      <c r="AY116" t="inlineStr"/>
+      <c r="AZ116" t="inlineStr"/>
+      <c r="BA116" t="inlineStr"/>
+      <c r="BB116" t="inlineStr"/>
+      <c r="BC116" t="inlineStr"/>
+      <c r="BD116" t="inlineStr"/>
+      <c r="BE116" t="inlineStr"/>
+      <c r="BF116" t="inlineStr"/>
+      <c r="BG116" t="inlineStr"/>
+      <c r="BH116" t="inlineStr"/>
+      <c r="BI116" t="inlineStr"/>
+      <c r="BJ116" t="inlineStr"/>
+      <c r="BK116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -6879,6 +9319,26 @@
       <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="inlineStr"/>
+      <c r="AS117" t="inlineStr"/>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AU117" t="inlineStr"/>
+      <c r="AV117" t="inlineStr"/>
+      <c r="AW117" t="inlineStr"/>
+      <c r="AX117" t="inlineStr"/>
+      <c r="AY117" t="inlineStr"/>
+      <c r="AZ117" t="inlineStr"/>
+      <c r="BA117" t="inlineStr"/>
+      <c r="BB117" t="inlineStr"/>
+      <c r="BC117" t="inlineStr"/>
+      <c r="BD117" t="inlineStr"/>
+      <c r="BE117" t="inlineStr"/>
+      <c r="BF117" t="inlineStr"/>
+      <c r="BG117" t="inlineStr"/>
+      <c r="BH117" t="inlineStr"/>
+      <c r="BI117" t="inlineStr"/>
+      <c r="BJ117" t="inlineStr"/>
+      <c r="BK117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -6932,6 +9392,26 @@
       <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="inlineStr"/>
+      <c r="AR118" t="inlineStr"/>
+      <c r="AS118" t="inlineStr"/>
+      <c r="AT118" t="inlineStr"/>
+      <c r="AU118" t="inlineStr"/>
+      <c r="AV118" t="inlineStr"/>
+      <c r="AW118" t="inlineStr"/>
+      <c r="AX118" t="inlineStr"/>
+      <c r="AY118" t="inlineStr"/>
+      <c r="AZ118" t="inlineStr"/>
+      <c r="BA118" t="inlineStr"/>
+      <c r="BB118" t="inlineStr"/>
+      <c r="BC118" t="inlineStr"/>
+      <c r="BD118" t="inlineStr"/>
+      <c r="BE118" t="inlineStr"/>
+      <c r="BF118" t="inlineStr"/>
+      <c r="BG118" t="inlineStr"/>
+      <c r="BH118" t="inlineStr"/>
+      <c r="BI118" t="inlineStr"/>
+      <c r="BJ118" t="inlineStr"/>
+      <c r="BK118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -6985,6 +9465,26 @@
       <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr"/>
       <c r="AQ119" t="inlineStr"/>
+      <c r="AR119" t="inlineStr"/>
+      <c r="AS119" t="inlineStr"/>
+      <c r="AT119" t="inlineStr"/>
+      <c r="AU119" t="inlineStr"/>
+      <c r="AV119" t="inlineStr"/>
+      <c r="AW119" t="inlineStr"/>
+      <c r="AX119" t="inlineStr"/>
+      <c r="AY119" t="inlineStr"/>
+      <c r="AZ119" t="inlineStr"/>
+      <c r="BA119" t="inlineStr"/>
+      <c r="BB119" t="inlineStr"/>
+      <c r="BC119" t="inlineStr"/>
+      <c r="BD119" t="inlineStr"/>
+      <c r="BE119" t="inlineStr"/>
+      <c r="BF119" t="inlineStr"/>
+      <c r="BG119" t="inlineStr"/>
+      <c r="BH119" t="inlineStr"/>
+      <c r="BI119" t="inlineStr"/>
+      <c r="BJ119" t="inlineStr"/>
+      <c r="BK119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -7038,6 +9538,26 @@
       <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr"/>
       <c r="AQ120" t="inlineStr"/>
+      <c r="AR120" t="inlineStr"/>
+      <c r="AS120" t="inlineStr"/>
+      <c r="AT120" t="inlineStr"/>
+      <c r="AU120" t="inlineStr"/>
+      <c r="AV120" t="inlineStr"/>
+      <c r="AW120" t="inlineStr"/>
+      <c r="AX120" t="inlineStr"/>
+      <c r="AY120" t="inlineStr"/>
+      <c r="AZ120" t="inlineStr"/>
+      <c r="BA120" t="inlineStr"/>
+      <c r="BB120" t="inlineStr"/>
+      <c r="BC120" t="inlineStr"/>
+      <c r="BD120" t="inlineStr"/>
+      <c r="BE120" t="inlineStr"/>
+      <c r="BF120" t="inlineStr"/>
+      <c r="BG120" t="inlineStr"/>
+      <c r="BH120" t="inlineStr"/>
+      <c r="BI120" t="inlineStr"/>
+      <c r="BJ120" t="inlineStr"/>
+      <c r="BK120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -7091,6 +9611,26 @@
       <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
+      <c r="AR121" t="inlineStr"/>
+      <c r="AS121" t="inlineStr"/>
+      <c r="AT121" t="inlineStr"/>
+      <c r="AU121" t="inlineStr"/>
+      <c r="AV121" t="inlineStr"/>
+      <c r="AW121" t="inlineStr"/>
+      <c r="AX121" t="inlineStr"/>
+      <c r="AY121" t="inlineStr"/>
+      <c r="AZ121" t="inlineStr"/>
+      <c r="BA121" t="inlineStr"/>
+      <c r="BB121" t="inlineStr"/>
+      <c r="BC121" t="inlineStr"/>
+      <c r="BD121" t="inlineStr"/>
+      <c r="BE121" t="inlineStr"/>
+      <c r="BF121" t="inlineStr"/>
+      <c r="BG121" t="inlineStr"/>
+      <c r="BH121" t="inlineStr"/>
+      <c r="BI121" t="inlineStr"/>
+      <c r="BJ121" t="inlineStr"/>
+      <c r="BK121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -7144,6 +9684,26 @@
       <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr"/>
       <c r="AQ122" t="inlineStr"/>
+      <c r="AR122" t="inlineStr"/>
+      <c r="AS122" t="inlineStr"/>
+      <c r="AT122" t="inlineStr"/>
+      <c r="AU122" t="inlineStr"/>
+      <c r="AV122" t="inlineStr"/>
+      <c r="AW122" t="inlineStr"/>
+      <c r="AX122" t="inlineStr"/>
+      <c r="AY122" t="inlineStr"/>
+      <c r="AZ122" t="inlineStr"/>
+      <c r="BA122" t="inlineStr"/>
+      <c r="BB122" t="inlineStr"/>
+      <c r="BC122" t="inlineStr"/>
+      <c r="BD122" t="inlineStr"/>
+      <c r="BE122" t="inlineStr"/>
+      <c r="BF122" t="inlineStr"/>
+      <c r="BG122" t="inlineStr"/>
+      <c r="BH122" t="inlineStr"/>
+      <c r="BI122" t="inlineStr"/>
+      <c r="BJ122" t="inlineStr"/>
+      <c r="BK122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -7197,6 +9757,26 @@
       <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr"/>
       <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="inlineStr"/>
+      <c r="AS123" t="inlineStr"/>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AU123" t="inlineStr"/>
+      <c r="AV123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr"/>
+      <c r="AX123" t="inlineStr"/>
+      <c r="AY123" t="inlineStr"/>
+      <c r="AZ123" t="inlineStr"/>
+      <c r="BA123" t="inlineStr"/>
+      <c r="BB123" t="inlineStr"/>
+      <c r="BC123" t="inlineStr"/>
+      <c r="BD123" t="inlineStr"/>
+      <c r="BE123" t="inlineStr"/>
+      <c r="BF123" t="inlineStr"/>
+      <c r="BG123" t="inlineStr"/>
+      <c r="BH123" t="inlineStr"/>
+      <c r="BI123" t="inlineStr"/>
+      <c r="BJ123" t="inlineStr"/>
+      <c r="BK123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -7250,6 +9830,26 @@
       <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
+      <c r="AR124" t="inlineStr"/>
+      <c r="AS124" t="inlineStr"/>
+      <c r="AT124" t="inlineStr"/>
+      <c r="AU124" t="inlineStr"/>
+      <c r="AV124" t="inlineStr"/>
+      <c r="AW124" t="inlineStr"/>
+      <c r="AX124" t="inlineStr"/>
+      <c r="AY124" t="inlineStr"/>
+      <c r="AZ124" t="inlineStr"/>
+      <c r="BA124" t="inlineStr"/>
+      <c r="BB124" t="inlineStr"/>
+      <c r="BC124" t="inlineStr"/>
+      <c r="BD124" t="inlineStr"/>
+      <c r="BE124" t="inlineStr"/>
+      <c r="BF124" t="inlineStr"/>
+      <c r="BG124" t="inlineStr"/>
+      <c r="BH124" t="inlineStr"/>
+      <c r="BI124" t="inlineStr"/>
+      <c r="BJ124" t="inlineStr"/>
+      <c r="BK124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -7303,6 +9903,26 @@
       <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
+      <c r="AR125" t="inlineStr"/>
+      <c r="AS125" t="inlineStr"/>
+      <c r="AT125" t="inlineStr"/>
+      <c r="AU125" t="inlineStr"/>
+      <c r="AV125" t="inlineStr"/>
+      <c r="AW125" t="inlineStr"/>
+      <c r="AX125" t="inlineStr"/>
+      <c r="AY125" t="inlineStr"/>
+      <c r="AZ125" t="inlineStr"/>
+      <c r="BA125" t="inlineStr"/>
+      <c r="BB125" t="inlineStr"/>
+      <c r="BC125" t="inlineStr"/>
+      <c r="BD125" t="inlineStr"/>
+      <c r="BE125" t="inlineStr"/>
+      <c r="BF125" t="inlineStr"/>
+      <c r="BG125" t="inlineStr"/>
+      <c r="BH125" t="inlineStr"/>
+      <c r="BI125" t="inlineStr"/>
+      <c r="BJ125" t="inlineStr"/>
+      <c r="BK125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -7356,6 +9976,26 @@
       <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr"/>
       <c r="AQ126" t="inlineStr"/>
+      <c r="AR126" t="inlineStr"/>
+      <c r="AS126" t="inlineStr"/>
+      <c r="AT126" t="inlineStr"/>
+      <c r="AU126" t="inlineStr"/>
+      <c r="AV126" t="inlineStr"/>
+      <c r="AW126" t="inlineStr"/>
+      <c r="AX126" t="inlineStr"/>
+      <c r="AY126" t="inlineStr"/>
+      <c r="AZ126" t="inlineStr"/>
+      <c r="BA126" t="inlineStr"/>
+      <c r="BB126" t="inlineStr"/>
+      <c r="BC126" t="inlineStr"/>
+      <c r="BD126" t="inlineStr"/>
+      <c r="BE126" t="inlineStr"/>
+      <c r="BF126" t="inlineStr"/>
+      <c r="BG126" t="inlineStr"/>
+      <c r="BH126" t="inlineStr"/>
+      <c r="BI126" t="inlineStr"/>
+      <c r="BJ126" t="inlineStr"/>
+      <c r="BK126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -7409,6 +10049,26 @@
       <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr"/>
       <c r="AQ127" t="inlineStr"/>
+      <c r="AR127" t="inlineStr"/>
+      <c r="AS127" t="inlineStr"/>
+      <c r="AT127" t="inlineStr"/>
+      <c r="AU127" t="inlineStr"/>
+      <c r="AV127" t="inlineStr"/>
+      <c r="AW127" t="inlineStr"/>
+      <c r="AX127" t="inlineStr"/>
+      <c r="AY127" t="inlineStr"/>
+      <c r="AZ127" t="inlineStr"/>
+      <c r="BA127" t="inlineStr"/>
+      <c r="BB127" t="inlineStr"/>
+      <c r="BC127" t="inlineStr"/>
+      <c r="BD127" t="inlineStr"/>
+      <c r="BE127" t="inlineStr"/>
+      <c r="BF127" t="inlineStr"/>
+      <c r="BG127" t="inlineStr"/>
+      <c r="BH127" t="inlineStr"/>
+      <c r="BI127" t="inlineStr"/>
+      <c r="BJ127" t="inlineStr"/>
+      <c r="BK127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -7462,6 +10122,26 @@
       <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr"/>
+      <c r="AR128" t="inlineStr"/>
+      <c r="AS128" t="inlineStr"/>
+      <c r="AT128" t="inlineStr"/>
+      <c r="AU128" t="inlineStr"/>
+      <c r="AV128" t="inlineStr"/>
+      <c r="AW128" t="inlineStr"/>
+      <c r="AX128" t="inlineStr"/>
+      <c r="AY128" t="inlineStr"/>
+      <c r="AZ128" t="inlineStr"/>
+      <c r="BA128" t="inlineStr"/>
+      <c r="BB128" t="inlineStr"/>
+      <c r="BC128" t="inlineStr"/>
+      <c r="BD128" t="inlineStr"/>
+      <c r="BE128" t="inlineStr"/>
+      <c r="BF128" t="inlineStr"/>
+      <c r="BG128" t="inlineStr"/>
+      <c r="BH128" t="inlineStr"/>
+      <c r="BI128" t="inlineStr"/>
+      <c r="BJ128" t="inlineStr"/>
+      <c r="BK128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -7515,6 +10195,26 @@
       <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
+      <c r="AR129" t="inlineStr"/>
+      <c r="AS129" t="inlineStr"/>
+      <c r="AT129" t="inlineStr"/>
+      <c r="AU129" t="inlineStr"/>
+      <c r="AV129" t="inlineStr"/>
+      <c r="AW129" t="inlineStr"/>
+      <c r="AX129" t="inlineStr"/>
+      <c r="AY129" t="inlineStr"/>
+      <c r="AZ129" t="inlineStr"/>
+      <c r="BA129" t="inlineStr"/>
+      <c r="BB129" t="inlineStr"/>
+      <c r="BC129" t="inlineStr"/>
+      <c r="BD129" t="inlineStr"/>
+      <c r="BE129" t="inlineStr"/>
+      <c r="BF129" t="inlineStr"/>
+      <c r="BG129" t="inlineStr"/>
+      <c r="BH129" t="inlineStr"/>
+      <c r="BI129" t="inlineStr"/>
+      <c r="BJ129" t="inlineStr"/>
+      <c r="BK129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -7568,6 +10268,26 @@
       <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr"/>
+      <c r="AR130" t="inlineStr"/>
+      <c r="AS130" t="inlineStr"/>
+      <c r="AT130" t="inlineStr"/>
+      <c r="AU130" t="inlineStr"/>
+      <c r="AV130" t="inlineStr"/>
+      <c r="AW130" t="inlineStr"/>
+      <c r="AX130" t="inlineStr"/>
+      <c r="AY130" t="inlineStr"/>
+      <c r="AZ130" t="inlineStr"/>
+      <c r="BA130" t="inlineStr"/>
+      <c r="BB130" t="inlineStr"/>
+      <c r="BC130" t="inlineStr"/>
+      <c r="BD130" t="inlineStr"/>
+      <c r="BE130" t="inlineStr"/>
+      <c r="BF130" t="inlineStr"/>
+      <c r="BG130" t="inlineStr"/>
+      <c r="BH130" t="inlineStr"/>
+      <c r="BI130" t="inlineStr"/>
+      <c r="BJ130" t="inlineStr"/>
+      <c r="BK130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -7621,6 +10341,26 @@
       <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr"/>
       <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="inlineStr"/>
+      <c r="AS131" t="inlineStr"/>
+      <c r="AT131" t="inlineStr"/>
+      <c r="AU131" t="inlineStr"/>
+      <c r="AV131" t="inlineStr"/>
+      <c r="AW131" t="inlineStr"/>
+      <c r="AX131" t="inlineStr"/>
+      <c r="AY131" t="inlineStr"/>
+      <c r="AZ131" t="inlineStr"/>
+      <c r="BA131" t="inlineStr"/>
+      <c r="BB131" t="inlineStr"/>
+      <c r="BC131" t="inlineStr"/>
+      <c r="BD131" t="inlineStr"/>
+      <c r="BE131" t="inlineStr"/>
+      <c r="BF131" t="inlineStr"/>
+      <c r="BG131" t="inlineStr"/>
+      <c r="BH131" t="inlineStr"/>
+      <c r="BI131" t="inlineStr"/>
+      <c r="BJ131" t="inlineStr"/>
+      <c r="BK131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -7674,6 +10414,26 @@
       <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr"/>
       <c r="AQ132" t="inlineStr"/>
+      <c r="AR132" t="inlineStr"/>
+      <c r="AS132" t="inlineStr"/>
+      <c r="AT132" t="inlineStr"/>
+      <c r="AU132" t="inlineStr"/>
+      <c r="AV132" t="inlineStr"/>
+      <c r="AW132" t="inlineStr"/>
+      <c r="AX132" t="inlineStr"/>
+      <c r="AY132" t="inlineStr"/>
+      <c r="AZ132" t="inlineStr"/>
+      <c r="BA132" t="inlineStr"/>
+      <c r="BB132" t="inlineStr"/>
+      <c r="BC132" t="inlineStr"/>
+      <c r="BD132" t="inlineStr"/>
+      <c r="BE132" t="inlineStr"/>
+      <c r="BF132" t="inlineStr"/>
+      <c r="BG132" t="inlineStr"/>
+      <c r="BH132" t="inlineStr"/>
+      <c r="BI132" t="inlineStr"/>
+      <c r="BJ132" t="inlineStr"/>
+      <c r="BK132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -7727,6 +10487,26 @@
       <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="inlineStr"/>
+      <c r="AS133" t="inlineStr"/>
+      <c r="AT133" t="inlineStr"/>
+      <c r="AU133" t="inlineStr"/>
+      <c r="AV133" t="inlineStr"/>
+      <c r="AW133" t="inlineStr"/>
+      <c r="AX133" t="inlineStr"/>
+      <c r="AY133" t="inlineStr"/>
+      <c r="AZ133" t="inlineStr"/>
+      <c r="BA133" t="inlineStr"/>
+      <c r="BB133" t="inlineStr"/>
+      <c r="BC133" t="inlineStr"/>
+      <c r="BD133" t="inlineStr"/>
+      <c r="BE133" t="inlineStr"/>
+      <c r="BF133" t="inlineStr"/>
+      <c r="BG133" t="inlineStr"/>
+      <c r="BH133" t="inlineStr"/>
+      <c r="BI133" t="inlineStr"/>
+      <c r="BJ133" t="inlineStr"/>
+      <c r="BK133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -7780,6 +10560,26 @@
       <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
+      <c r="AR134" t="inlineStr"/>
+      <c r="AS134" t="inlineStr"/>
+      <c r="AT134" t="inlineStr"/>
+      <c r="AU134" t="inlineStr"/>
+      <c r="AV134" t="inlineStr"/>
+      <c r="AW134" t="inlineStr"/>
+      <c r="AX134" t="inlineStr"/>
+      <c r="AY134" t="inlineStr"/>
+      <c r="AZ134" t="inlineStr"/>
+      <c r="BA134" t="inlineStr"/>
+      <c r="BB134" t="inlineStr"/>
+      <c r="BC134" t="inlineStr"/>
+      <c r="BD134" t="inlineStr"/>
+      <c r="BE134" t="inlineStr"/>
+      <c r="BF134" t="inlineStr"/>
+      <c r="BG134" t="inlineStr"/>
+      <c r="BH134" t="inlineStr"/>
+      <c r="BI134" t="inlineStr"/>
+      <c r="BJ134" t="inlineStr"/>
+      <c r="BK134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -7833,6 +10633,26 @@
       <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr"/>
+      <c r="AR135" t="inlineStr"/>
+      <c r="AS135" t="inlineStr"/>
+      <c r="AT135" t="inlineStr"/>
+      <c r="AU135" t="inlineStr"/>
+      <c r="AV135" t="inlineStr"/>
+      <c r="AW135" t="inlineStr"/>
+      <c r="AX135" t="inlineStr"/>
+      <c r="AY135" t="inlineStr"/>
+      <c r="AZ135" t="inlineStr"/>
+      <c r="BA135" t="inlineStr"/>
+      <c r="BB135" t="inlineStr"/>
+      <c r="BC135" t="inlineStr"/>
+      <c r="BD135" t="inlineStr"/>
+      <c r="BE135" t="inlineStr"/>
+      <c r="BF135" t="inlineStr"/>
+      <c r="BG135" t="inlineStr"/>
+      <c r="BH135" t="inlineStr"/>
+      <c r="BI135" t="inlineStr"/>
+      <c r="BJ135" t="inlineStr"/>
+      <c r="BK135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -7886,6 +10706,26 @@
       <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr"/>
       <c r="AQ136" t="inlineStr"/>
+      <c r="AR136" t="inlineStr"/>
+      <c r="AS136" t="inlineStr"/>
+      <c r="AT136" t="inlineStr"/>
+      <c r="AU136" t="inlineStr"/>
+      <c r="AV136" t="inlineStr"/>
+      <c r="AW136" t="inlineStr"/>
+      <c r="AX136" t="inlineStr"/>
+      <c r="AY136" t="inlineStr"/>
+      <c r="AZ136" t="inlineStr"/>
+      <c r="BA136" t="inlineStr"/>
+      <c r="BB136" t="inlineStr"/>
+      <c r="BC136" t="inlineStr"/>
+      <c r="BD136" t="inlineStr"/>
+      <c r="BE136" t="inlineStr"/>
+      <c r="BF136" t="inlineStr"/>
+      <c r="BG136" t="inlineStr"/>
+      <c r="BH136" t="inlineStr"/>
+      <c r="BI136" t="inlineStr"/>
+      <c r="BJ136" t="inlineStr"/>
+      <c r="BK136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -7939,6 +10779,26 @@
       <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr"/>
       <c r="AQ137" t="inlineStr"/>
+      <c r="AR137" t="inlineStr"/>
+      <c r="AS137" t="inlineStr"/>
+      <c r="AT137" t="inlineStr"/>
+      <c r="AU137" t="inlineStr"/>
+      <c r="AV137" t="inlineStr"/>
+      <c r="AW137" t="inlineStr"/>
+      <c r="AX137" t="inlineStr"/>
+      <c r="AY137" t="inlineStr"/>
+      <c r="AZ137" t="inlineStr"/>
+      <c r="BA137" t="inlineStr"/>
+      <c r="BB137" t="inlineStr"/>
+      <c r="BC137" t="inlineStr"/>
+      <c r="BD137" t="inlineStr"/>
+      <c r="BE137" t="inlineStr"/>
+      <c r="BF137" t="inlineStr"/>
+      <c r="BG137" t="inlineStr"/>
+      <c r="BH137" t="inlineStr"/>
+      <c r="BI137" t="inlineStr"/>
+      <c r="BJ137" t="inlineStr"/>
+      <c r="BK137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -7992,6 +10852,26 @@
       <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr"/>
       <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="inlineStr"/>
+      <c r="AS138" t="inlineStr"/>
+      <c r="AT138" t="inlineStr"/>
+      <c r="AU138" t="inlineStr"/>
+      <c r="AV138" t="inlineStr"/>
+      <c r="AW138" t="inlineStr"/>
+      <c r="AX138" t="inlineStr"/>
+      <c r="AY138" t="inlineStr"/>
+      <c r="AZ138" t="inlineStr"/>
+      <c r="BA138" t="inlineStr"/>
+      <c r="BB138" t="inlineStr"/>
+      <c r="BC138" t="inlineStr"/>
+      <c r="BD138" t="inlineStr"/>
+      <c r="BE138" t="inlineStr"/>
+      <c r="BF138" t="inlineStr"/>
+      <c r="BG138" t="inlineStr"/>
+      <c r="BH138" t="inlineStr"/>
+      <c r="BI138" t="inlineStr"/>
+      <c r="BJ138" t="inlineStr"/>
+      <c r="BK138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -8045,6 +10925,26 @@
       <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr"/>
       <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="inlineStr"/>
+      <c r="AS139" t="inlineStr"/>
+      <c r="AT139" t="inlineStr"/>
+      <c r="AU139" t="inlineStr"/>
+      <c r="AV139" t="inlineStr"/>
+      <c r="AW139" t="inlineStr"/>
+      <c r="AX139" t="inlineStr"/>
+      <c r="AY139" t="inlineStr"/>
+      <c r="AZ139" t="inlineStr"/>
+      <c r="BA139" t="inlineStr"/>
+      <c r="BB139" t="inlineStr"/>
+      <c r="BC139" t="inlineStr"/>
+      <c r="BD139" t="inlineStr"/>
+      <c r="BE139" t="inlineStr"/>
+      <c r="BF139" t="inlineStr"/>
+      <c r="BG139" t="inlineStr"/>
+      <c r="BH139" t="inlineStr"/>
+      <c r="BI139" t="inlineStr"/>
+      <c r="BJ139" t="inlineStr"/>
+      <c r="BK139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -8098,6 +10998,26 @@
       <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
+      <c r="AR140" t="inlineStr"/>
+      <c r="AS140" t="inlineStr"/>
+      <c r="AT140" t="inlineStr"/>
+      <c r="AU140" t="inlineStr"/>
+      <c r="AV140" t="inlineStr"/>
+      <c r="AW140" t="inlineStr"/>
+      <c r="AX140" t="inlineStr"/>
+      <c r="AY140" t="inlineStr"/>
+      <c r="AZ140" t="inlineStr"/>
+      <c r="BA140" t="inlineStr"/>
+      <c r="BB140" t="inlineStr"/>
+      <c r="BC140" t="inlineStr"/>
+      <c r="BD140" t="inlineStr"/>
+      <c r="BE140" t="inlineStr"/>
+      <c r="BF140" t="inlineStr"/>
+      <c r="BG140" t="inlineStr"/>
+      <c r="BH140" t="inlineStr"/>
+      <c r="BI140" t="inlineStr"/>
+      <c r="BJ140" t="inlineStr"/>
+      <c r="BK140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -8151,6 +11071,26 @@
       <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
+      <c r="AR141" t="inlineStr"/>
+      <c r="AS141" t="inlineStr"/>
+      <c r="AT141" t="inlineStr"/>
+      <c r="AU141" t="inlineStr"/>
+      <c r="AV141" t="inlineStr"/>
+      <c r="AW141" t="inlineStr"/>
+      <c r="AX141" t="inlineStr"/>
+      <c r="AY141" t="inlineStr"/>
+      <c r="AZ141" t="inlineStr"/>
+      <c r="BA141" t="inlineStr"/>
+      <c r="BB141" t="inlineStr"/>
+      <c r="BC141" t="inlineStr"/>
+      <c r="BD141" t="inlineStr"/>
+      <c r="BE141" t="inlineStr"/>
+      <c r="BF141" t="inlineStr"/>
+      <c r="BG141" t="inlineStr"/>
+      <c r="BH141" t="inlineStr"/>
+      <c r="BI141" t="inlineStr"/>
+      <c r="BJ141" t="inlineStr"/>
+      <c r="BK141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -8204,6 +11144,26 @@
       <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
+      <c r="AR142" t="inlineStr"/>
+      <c r="AS142" t="inlineStr"/>
+      <c r="AT142" t="inlineStr"/>
+      <c r="AU142" t="inlineStr"/>
+      <c r="AV142" t="inlineStr"/>
+      <c r="AW142" t="inlineStr"/>
+      <c r="AX142" t="inlineStr"/>
+      <c r="AY142" t="inlineStr"/>
+      <c r="AZ142" t="inlineStr"/>
+      <c r="BA142" t="inlineStr"/>
+      <c r="BB142" t="inlineStr"/>
+      <c r="BC142" t="inlineStr"/>
+      <c r="BD142" t="inlineStr"/>
+      <c r="BE142" t="inlineStr"/>
+      <c r="BF142" t="inlineStr"/>
+      <c r="BG142" t="inlineStr"/>
+      <c r="BH142" t="inlineStr"/>
+      <c r="BI142" t="inlineStr"/>
+      <c r="BJ142" t="inlineStr"/>
+      <c r="BK142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -8257,6 +11217,26 @@
       <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
+      <c r="AR143" t="inlineStr"/>
+      <c r="AS143" t="inlineStr"/>
+      <c r="AT143" t="inlineStr"/>
+      <c r="AU143" t="inlineStr"/>
+      <c r="AV143" t="inlineStr"/>
+      <c r="AW143" t="inlineStr"/>
+      <c r="AX143" t="inlineStr"/>
+      <c r="AY143" t="inlineStr"/>
+      <c r="AZ143" t="inlineStr"/>
+      <c r="BA143" t="inlineStr"/>
+      <c r="BB143" t="inlineStr"/>
+      <c r="BC143" t="inlineStr"/>
+      <c r="BD143" t="inlineStr"/>
+      <c r="BE143" t="inlineStr"/>
+      <c r="BF143" t="inlineStr"/>
+      <c r="BG143" t="inlineStr"/>
+      <c r="BH143" t="inlineStr"/>
+      <c r="BI143" t="inlineStr"/>
+      <c r="BJ143" t="inlineStr"/>
+      <c r="BK143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -8310,6 +11290,26 @@
       <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
+      <c r="AR144" t="inlineStr"/>
+      <c r="AS144" t="inlineStr"/>
+      <c r="AT144" t="inlineStr"/>
+      <c r="AU144" t="inlineStr"/>
+      <c r="AV144" t="inlineStr"/>
+      <c r="AW144" t="inlineStr"/>
+      <c r="AX144" t="inlineStr"/>
+      <c r="AY144" t="inlineStr"/>
+      <c r="AZ144" t="inlineStr"/>
+      <c r="BA144" t="inlineStr"/>
+      <c r="BB144" t="inlineStr"/>
+      <c r="BC144" t="inlineStr"/>
+      <c r="BD144" t="inlineStr"/>
+      <c r="BE144" t="inlineStr"/>
+      <c r="BF144" t="inlineStr"/>
+      <c r="BG144" t="inlineStr"/>
+      <c r="BH144" t="inlineStr"/>
+      <c r="BI144" t="inlineStr"/>
+      <c r="BJ144" t="inlineStr"/>
+      <c r="BK144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -8363,6 +11363,26 @@
       <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="inlineStr"/>
+      <c r="AS145" t="inlineStr"/>
+      <c r="AT145" t="inlineStr"/>
+      <c r="AU145" t="inlineStr"/>
+      <c r="AV145" t="inlineStr"/>
+      <c r="AW145" t="inlineStr"/>
+      <c r="AX145" t="inlineStr"/>
+      <c r="AY145" t="inlineStr"/>
+      <c r="AZ145" t="inlineStr"/>
+      <c r="BA145" t="inlineStr"/>
+      <c r="BB145" t="inlineStr"/>
+      <c r="BC145" t="inlineStr"/>
+      <c r="BD145" t="inlineStr"/>
+      <c r="BE145" t="inlineStr"/>
+      <c r="BF145" t="inlineStr"/>
+      <c r="BG145" t="inlineStr"/>
+      <c r="BH145" t="inlineStr"/>
+      <c r="BI145" t="inlineStr"/>
+      <c r="BJ145" t="inlineStr"/>
+      <c r="BK145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -8416,6 +11436,26 @@
       <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
+      <c r="AR146" t="inlineStr"/>
+      <c r="AS146" t="inlineStr"/>
+      <c r="AT146" t="inlineStr"/>
+      <c r="AU146" t="inlineStr"/>
+      <c r="AV146" t="inlineStr"/>
+      <c r="AW146" t="inlineStr"/>
+      <c r="AX146" t="inlineStr"/>
+      <c r="AY146" t="inlineStr"/>
+      <c r="AZ146" t="inlineStr"/>
+      <c r="BA146" t="inlineStr"/>
+      <c r="BB146" t="inlineStr"/>
+      <c r="BC146" t="inlineStr"/>
+      <c r="BD146" t="inlineStr"/>
+      <c r="BE146" t="inlineStr"/>
+      <c r="BF146" t="inlineStr"/>
+      <c r="BG146" t="inlineStr"/>
+      <c r="BH146" t="inlineStr"/>
+      <c r="BI146" t="inlineStr"/>
+      <c r="BJ146" t="inlineStr"/>
+      <c r="BK146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -8469,6 +11509,26 @@
       <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr"/>
       <c r="AQ147" t="inlineStr"/>
+      <c r="AR147" t="inlineStr"/>
+      <c r="AS147" t="inlineStr"/>
+      <c r="AT147" t="inlineStr"/>
+      <c r="AU147" t="inlineStr"/>
+      <c r="AV147" t="inlineStr"/>
+      <c r="AW147" t="inlineStr"/>
+      <c r="AX147" t="inlineStr"/>
+      <c r="AY147" t="inlineStr"/>
+      <c r="AZ147" t="inlineStr"/>
+      <c r="BA147" t="inlineStr"/>
+      <c r="BB147" t="inlineStr"/>
+      <c r="BC147" t="inlineStr"/>
+      <c r="BD147" t="inlineStr"/>
+      <c r="BE147" t="inlineStr"/>
+      <c r="BF147" t="inlineStr"/>
+      <c r="BG147" t="inlineStr"/>
+      <c r="BH147" t="inlineStr"/>
+      <c r="BI147" t="inlineStr"/>
+      <c r="BJ147" t="inlineStr"/>
+      <c r="BK147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -8522,6 +11582,26 @@
       <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr"/>
       <c r="AQ148" t="inlineStr"/>
+      <c r="AR148" t="inlineStr"/>
+      <c r="AS148" t="inlineStr"/>
+      <c r="AT148" t="inlineStr"/>
+      <c r="AU148" t="inlineStr"/>
+      <c r="AV148" t="inlineStr"/>
+      <c r="AW148" t="inlineStr"/>
+      <c r="AX148" t="inlineStr"/>
+      <c r="AY148" t="inlineStr"/>
+      <c r="AZ148" t="inlineStr"/>
+      <c r="BA148" t="inlineStr"/>
+      <c r="BB148" t="inlineStr"/>
+      <c r="BC148" t="inlineStr"/>
+      <c r="BD148" t="inlineStr"/>
+      <c r="BE148" t="inlineStr"/>
+      <c r="BF148" t="inlineStr"/>
+      <c r="BG148" t="inlineStr"/>
+      <c r="BH148" t="inlineStr"/>
+      <c r="BI148" t="inlineStr"/>
+      <c r="BJ148" t="inlineStr"/>
+      <c r="BK148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -8575,6 +11655,26 @@
       <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
+      <c r="AR149" t="inlineStr"/>
+      <c r="AS149" t="inlineStr"/>
+      <c r="AT149" t="inlineStr"/>
+      <c r="AU149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr"/>
+      <c r="AW149" t="inlineStr"/>
+      <c r="AX149" t="inlineStr"/>
+      <c r="AY149" t="inlineStr"/>
+      <c r="AZ149" t="inlineStr"/>
+      <c r="BA149" t="inlineStr"/>
+      <c r="BB149" t="inlineStr"/>
+      <c r="BC149" t="inlineStr"/>
+      <c r="BD149" t="inlineStr"/>
+      <c r="BE149" t="inlineStr"/>
+      <c r="BF149" t="inlineStr"/>
+      <c r="BG149" t="inlineStr"/>
+      <c r="BH149" t="inlineStr"/>
+      <c r="BI149" t="inlineStr"/>
+      <c r="BJ149" t="inlineStr"/>
+      <c r="BK149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -8628,6 +11728,26 @@
       <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr"/>
+      <c r="AR150" t="inlineStr"/>
+      <c r="AS150" t="inlineStr"/>
+      <c r="AT150" t="inlineStr"/>
+      <c r="AU150" t="inlineStr"/>
+      <c r="AV150" t="inlineStr"/>
+      <c r="AW150" t="inlineStr"/>
+      <c r="AX150" t="inlineStr"/>
+      <c r="AY150" t="inlineStr"/>
+      <c r="AZ150" t="inlineStr"/>
+      <c r="BA150" t="inlineStr"/>
+      <c r="BB150" t="inlineStr"/>
+      <c r="BC150" t="inlineStr"/>
+      <c r="BD150" t="inlineStr"/>
+      <c r="BE150" t="inlineStr"/>
+      <c r="BF150" t="inlineStr"/>
+      <c r="BG150" t="inlineStr"/>
+      <c r="BH150" t="inlineStr"/>
+      <c r="BI150" t="inlineStr"/>
+      <c r="BJ150" t="inlineStr"/>
+      <c r="BK150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -8681,6 +11801,26 @@
       <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
+      <c r="AR151" t="inlineStr"/>
+      <c r="AS151" t="inlineStr"/>
+      <c r="AT151" t="inlineStr"/>
+      <c r="AU151" t="inlineStr"/>
+      <c r="AV151" t="inlineStr"/>
+      <c r="AW151" t="inlineStr"/>
+      <c r="AX151" t="inlineStr"/>
+      <c r="AY151" t="inlineStr"/>
+      <c r="AZ151" t="inlineStr"/>
+      <c r="BA151" t="inlineStr"/>
+      <c r="BB151" t="inlineStr"/>
+      <c r="BC151" t="inlineStr"/>
+      <c r="BD151" t="inlineStr"/>
+      <c r="BE151" t="inlineStr"/>
+      <c r="BF151" t="inlineStr"/>
+      <c r="BG151" t="inlineStr"/>
+      <c r="BH151" t="inlineStr"/>
+      <c r="BI151" t="inlineStr"/>
+      <c r="BJ151" t="inlineStr"/>
+      <c r="BK151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -8734,6 +11874,26 @@
       <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
+      <c r="AR152" t="inlineStr"/>
+      <c r="AS152" t="inlineStr"/>
+      <c r="AT152" t="inlineStr"/>
+      <c r="AU152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr"/>
+      <c r="AW152" t="inlineStr"/>
+      <c r="AX152" t="inlineStr"/>
+      <c r="AY152" t="inlineStr"/>
+      <c r="AZ152" t="inlineStr"/>
+      <c r="BA152" t="inlineStr"/>
+      <c r="BB152" t="inlineStr"/>
+      <c r="BC152" t="inlineStr"/>
+      <c r="BD152" t="inlineStr"/>
+      <c r="BE152" t="inlineStr"/>
+      <c r="BF152" t="inlineStr"/>
+      <c r="BG152" t="inlineStr"/>
+      <c r="BH152" t="inlineStr"/>
+      <c r="BI152" t="inlineStr"/>
+      <c r="BJ152" t="inlineStr"/>
+      <c r="BK152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -8787,6 +11947,26 @@
       <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
+      <c r="AR153" t="inlineStr"/>
+      <c r="AS153" t="inlineStr"/>
+      <c r="AT153" t="inlineStr"/>
+      <c r="AU153" t="inlineStr"/>
+      <c r="AV153" t="inlineStr"/>
+      <c r="AW153" t="inlineStr"/>
+      <c r="AX153" t="inlineStr"/>
+      <c r="AY153" t="inlineStr"/>
+      <c r="AZ153" t="inlineStr"/>
+      <c r="BA153" t="inlineStr"/>
+      <c r="BB153" t="inlineStr"/>
+      <c r="BC153" t="inlineStr"/>
+      <c r="BD153" t="inlineStr"/>
+      <c r="BE153" t="inlineStr"/>
+      <c r="BF153" t="inlineStr"/>
+      <c r="BG153" t="inlineStr"/>
+      <c r="BH153" t="inlineStr"/>
+      <c r="BI153" t="inlineStr"/>
+      <c r="BJ153" t="inlineStr"/>
+      <c r="BK153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -8840,6 +12020,26 @@
       <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr"/>
       <c r="AQ154" t="inlineStr"/>
+      <c r="AR154" t="inlineStr"/>
+      <c r="AS154" t="inlineStr"/>
+      <c r="AT154" t="inlineStr"/>
+      <c r="AU154" t="inlineStr"/>
+      <c r="AV154" t="inlineStr"/>
+      <c r="AW154" t="inlineStr"/>
+      <c r="AX154" t="inlineStr"/>
+      <c r="AY154" t="inlineStr"/>
+      <c r="AZ154" t="inlineStr"/>
+      <c r="BA154" t="inlineStr"/>
+      <c r="BB154" t="inlineStr"/>
+      <c r="BC154" t="inlineStr"/>
+      <c r="BD154" t="inlineStr"/>
+      <c r="BE154" t="inlineStr"/>
+      <c r="BF154" t="inlineStr"/>
+      <c r="BG154" t="inlineStr"/>
+      <c r="BH154" t="inlineStr"/>
+      <c r="BI154" t="inlineStr"/>
+      <c r="BJ154" t="inlineStr"/>
+      <c r="BK154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -8893,6 +12093,26 @@
       <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
+      <c r="AR155" t="inlineStr"/>
+      <c r="AS155" t="inlineStr"/>
+      <c r="AT155" t="inlineStr"/>
+      <c r="AU155" t="inlineStr"/>
+      <c r="AV155" t="inlineStr"/>
+      <c r="AW155" t="inlineStr"/>
+      <c r="AX155" t="inlineStr"/>
+      <c r="AY155" t="inlineStr"/>
+      <c r="AZ155" t="inlineStr"/>
+      <c r="BA155" t="inlineStr"/>
+      <c r="BB155" t="inlineStr"/>
+      <c r="BC155" t="inlineStr"/>
+      <c r="BD155" t="inlineStr"/>
+      <c r="BE155" t="inlineStr"/>
+      <c r="BF155" t="inlineStr"/>
+      <c r="BG155" t="inlineStr"/>
+      <c r="BH155" t="inlineStr"/>
+      <c r="BI155" t="inlineStr"/>
+      <c r="BJ155" t="inlineStr"/>
+      <c r="BK155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -8946,6 +12166,26 @@
       <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
+      <c r="AR156" t="inlineStr"/>
+      <c r="AS156" t="inlineStr"/>
+      <c r="AT156" t="inlineStr"/>
+      <c r="AU156" t="inlineStr"/>
+      <c r="AV156" t="inlineStr"/>
+      <c r="AW156" t="inlineStr"/>
+      <c r="AX156" t="inlineStr"/>
+      <c r="AY156" t="inlineStr"/>
+      <c r="AZ156" t="inlineStr"/>
+      <c r="BA156" t="inlineStr"/>
+      <c r="BB156" t="inlineStr"/>
+      <c r="BC156" t="inlineStr"/>
+      <c r="BD156" t="inlineStr"/>
+      <c r="BE156" t="inlineStr"/>
+      <c r="BF156" t="inlineStr"/>
+      <c r="BG156" t="inlineStr"/>
+      <c r="BH156" t="inlineStr"/>
+      <c r="BI156" t="inlineStr"/>
+      <c r="BJ156" t="inlineStr"/>
+      <c r="BK156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -8999,6 +12239,26 @@
       <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr"/>
       <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
+      <c r="AS157" t="inlineStr"/>
+      <c r="AT157" t="inlineStr"/>
+      <c r="AU157" t="inlineStr"/>
+      <c r="AV157" t="inlineStr"/>
+      <c r="AW157" t="inlineStr"/>
+      <c r="AX157" t="inlineStr"/>
+      <c r="AY157" t="inlineStr"/>
+      <c r="AZ157" t="inlineStr"/>
+      <c r="BA157" t="inlineStr"/>
+      <c r="BB157" t="inlineStr"/>
+      <c r="BC157" t="inlineStr"/>
+      <c r="BD157" t="inlineStr"/>
+      <c r="BE157" t="inlineStr"/>
+      <c r="BF157" t="inlineStr"/>
+      <c r="BG157" t="inlineStr"/>
+      <c r="BH157" t="inlineStr"/>
+      <c r="BI157" t="inlineStr"/>
+      <c r="BJ157" t="inlineStr"/>
+      <c r="BK157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9134,6 +12394,66 @@
       <c r="AQ158" t="n">
         <v>0.7336562677106536</v>
       </c>
+      <c r="AR158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>251</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>112.3358253961079</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>75.77551479416502</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>106.8042563888279</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>122</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>77</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>111</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>57.54400729260239</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>45.01525093147104</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>64.22426213866069</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>6564.249210596085</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>904070.5</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>0.03779220833333333</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>27.82893333333333</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>0.7336562677106536</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9269,6 +12589,66 @@
       <c r="AQ159" t="n">
         <v>0.9350230099605422</v>
       </c>
+      <c r="AR159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>212</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>191</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>230</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>80.91494549528102</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>57.68113301727727</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>69.70647960932342</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>76</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>43.57216240457272</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>35.75178268175277</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>49.25092875093144</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5065.562957882881</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>432512.5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>0.018113875</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>70.53980799999999</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>0.9350230099605422</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9404,6 +12784,66 @@
       <c r="AQ160" t="n">
         <v>0.836535321793914</v>
       </c>
+      <c r="AR160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>219</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>187</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>236</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>79.10277353833399</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>57.24623066342585</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>71.92585118610216</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>66</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>39.78626514653837</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>33.86661800995819</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>47.75084842175463</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>5931.416625261307</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>528013.5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>0.02211375</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>71.146272</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>0.836535321793914</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9539,6 +12979,66 @@
       <c r="AQ161" t="n">
         <v>0.7329872387574156</v>
       </c>
+      <c r="AR161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>104.8242483852737</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>73.11847491768501</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>104.92131948936</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>69</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>98</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>59.9329717048862</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>48.0184174542736</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>63.65149879609942</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>5905.985164284706</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>781208.5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>0.032661625</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>35.12685866666666</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>0.7329872387574156</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9674,6 +13174,66 @@
       <c r="AQ162" t="n">
         <v>0.9578663778737779</v>
       </c>
+      <c r="AR162" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>219</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>120.7024191491759</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>66.45348816520672</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>102.7073574793561</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>123</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>63</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>91</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>46.47936707293548</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>32.47926382437318</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>57.8106189730895</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5193.517129540443</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>503479</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>0.021076625</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>43.36323466666666</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>0.9578663778737779</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9809,6 +13369,66 @@
       <c r="AQ163" t="n">
         <v>0.8307018833276572</v>
       </c>
+      <c r="AR163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>251</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>223</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>135.890255209442</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>84.16683459873695</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>119.9986092386291</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>145</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>84</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>118</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>49.04036432687942</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>37.18871649103691</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>53.07644155131266</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>37.0710676908493</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>0.01761625</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>29.15065866666666</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>0.8307018833276572</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9944,6 +13564,66 @@
       <c r="AQ164" t="n">
         <v>0.8273139130931541</v>
       </c>
+      <c r="AR164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>241</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>205</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>123.7275215606877</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>84.93785813499071</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>101.2081848215897</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>83</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>99</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>41.20320942737572</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>31.52159977618827</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>43.7675138812848</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>106.2253952026367</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>201</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>0.026548125</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>33.30416533333333</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>0.8273139130931541</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10079,6 +13759,66 @@
       <c r="AQ165" t="n">
         <v>0.7374767589685881</v>
       </c>
+      <c r="AR165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>237</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>222</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>101.3100719872055</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>86.93733904741688</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>100.8310831994476</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>106</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>91</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>95</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>47.74985245248308</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>43.82132045859942</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>47.84194112982393</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>7015.417829394341</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>816657</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>0.034155375</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>23.89247466666666</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>0.7374767589685881</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10214,6 +13954,66 @@
       <c r="AQ166" t="n">
         <v>0.7495304429389414</v>
       </c>
+      <c r="AR166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>235</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>236</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>125.3564295890116</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>111.1230646722039</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>94.13716299760772</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>119</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>107</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>97</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>44.09850909661176</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>42.93109882120168</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>36.02704334672273</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>4135.703866124153</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>295806</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>0.012401</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>45.93775466666666</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>0.7495304429389414</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10349,6 +14149,66 @@
       <c r="AQ167" t="n">
         <v>0.8042932663310409</v>
       </c>
+      <c r="AR167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>253</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>120.9162863504404</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>108.2316802391379</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>96.46914518033755</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>108</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>99</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>92</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>54.0507910493339</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>54.09616590939059</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>48.03639777655093</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>9.414213538169861</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>0.01354866666666667</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>34.02794933333333</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>0.8042932663310409</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10484,6 +14344,66 @@
       <c r="AQ168" t="n">
         <v>0.974856196622002</v>
       </c>
+      <c r="AR168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>241</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>247</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>109.2238826724036</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>95.9410764649552</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>95.96625257441198</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>102</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>85</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>89</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>52.84977647707109</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>47.96163318756719</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>42.49250435377412</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>0.01588145833333333</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>33.23579733333333</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>0.974856196622002</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10619,6 +14539,66 @@
       <c r="AQ169" t="n">
         <v>0.8216270961120783</v>
       </c>
+      <c r="AR169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>154.2236040069588</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>123.1557273567347</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>92.55566618510275</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>116</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>52.59988447096108</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>48.49947265253954</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>56.79161351520303</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4504.820739865303</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>459013</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>0.01920825</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>35.954048</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>0.8216270961120783</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10754,6 +14734,66 @@
       <c r="AQ170" t="n">
         <v>0.6763229513362352</v>
       </c>
+      <c r="AR170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>142.4215493213766</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>113.2017726342436</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>84.43932783971563</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>133</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>104</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>71</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>56.91241123271156</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>51.69027394425046</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>49.36585282783881</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>6404.36105132103</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>591342.5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>0.024756</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>37.41944533333334</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>0.6763229513362352</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10889,6 +14929,66 @@
       <c r="AQ171" t="n">
         <v>0.716375476785548</v>
       </c>
+      <c r="AR171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>118.2663286218065</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>90.71182208524229</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>63.85893234520221</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>119</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>83</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>49.58754837999827</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>51.90278780544835</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>45.55320887794916</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>0.01303245833333333</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>32.899456</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>0.716375476785548</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -11024,6 +15124,66 @@
       <c r="AQ172" t="n">
         <v>0.6864225963648877</v>
       </c>
+      <c r="AR172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>68.52016523790076</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>46.79159232980359</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>36.2142933910702</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>52.37043357592307</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>42.66623051590616</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>43.27647526951161</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>4764.134453296661</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>509638</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>0.02132279166666667</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>37.83626666666667</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>0.6864225963648877</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -11159,6 +15319,66 @@
       <c r="AQ173" t="n">
         <v>0.9232478865771004</v>
       </c>
+      <c r="AR173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>156.8675407782426</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>123.720465820482</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>93.07091634101921</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>148</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>115</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>55.37127803371359</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>46.79927669307449</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>57.95059765193144</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4258.161799430847</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>499411.5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>0.020887875</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>48.63002666666667</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>0.9232478865771004</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -11294,6 +15514,66 @@
       <c r="AQ174" t="n">
         <v>0.7531857691681176</v>
       </c>
+      <c r="AR174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>124.2702859856377</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>101.9429450092227</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>85.13152496600024</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>119</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>104</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>82</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>51.28228649027852</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>45.80823011125747</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>49.39329035673529</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3745.728258252144</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>307893</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>0.012898375</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>38.44942933333333</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>0.7531857691681176</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -11427,6 +15707,66 @@
         <v>45.055056</v>
       </c>
       <c r="AQ175" t="n">
+        <v>0.965431754193505</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>131.0445550895836</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>107.7753866546368</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>76.48594379746741</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>124</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>47.10593034280812</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>42.89092504826552</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>39.13203796858119</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>5872.398528337479</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>536054</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>0.022444125</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>45.055056</v>
+      </c>
+      <c r="BK175" t="n">
         <v>0.965431754193505</v>
       </c>
     </row>
@@ -11482,6 +15822,26 @@
       <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr"/>
       <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr"/>
+      <c r="AT176" t="inlineStr"/>
+      <c r="AU176" t="inlineStr"/>
+      <c r="AV176" t="inlineStr"/>
+      <c r="AW176" t="inlineStr"/>
+      <c r="AX176" t="inlineStr"/>
+      <c r="AY176" t="inlineStr"/>
+      <c r="AZ176" t="inlineStr"/>
+      <c r="BA176" t="inlineStr"/>
+      <c r="BB176" t="inlineStr"/>
+      <c r="BC176" t="inlineStr"/>
+      <c r="BD176" t="inlineStr"/>
+      <c r="BE176" t="inlineStr"/>
+      <c r="BF176" t="inlineStr"/>
+      <c r="BG176" t="inlineStr"/>
+      <c r="BH176" t="inlineStr"/>
+      <c r="BI176" t="inlineStr"/>
+      <c r="BJ176" t="inlineStr"/>
+      <c r="BK176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -11535,6 +15895,26 @@
       <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr"/>
       <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr"/>
+      <c r="AT177" t="inlineStr"/>
+      <c r="AU177" t="inlineStr"/>
+      <c r="AV177" t="inlineStr"/>
+      <c r="AW177" t="inlineStr"/>
+      <c r="AX177" t="inlineStr"/>
+      <c r="AY177" t="inlineStr"/>
+      <c r="AZ177" t="inlineStr"/>
+      <c r="BA177" t="inlineStr"/>
+      <c r="BB177" t="inlineStr"/>
+      <c r="BC177" t="inlineStr"/>
+      <c r="BD177" t="inlineStr"/>
+      <c r="BE177" t="inlineStr"/>
+      <c r="BF177" t="inlineStr"/>
+      <c r="BG177" t="inlineStr"/>
+      <c r="BH177" t="inlineStr"/>
+      <c r="BI177" t="inlineStr"/>
+      <c r="BJ177" t="inlineStr"/>
+      <c r="BK177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -11588,6 +15968,26 @@
       <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr"/>
+      <c r="AT178" t="inlineStr"/>
+      <c r="AU178" t="inlineStr"/>
+      <c r="AV178" t="inlineStr"/>
+      <c r="AW178" t="inlineStr"/>
+      <c r="AX178" t="inlineStr"/>
+      <c r="AY178" t="inlineStr"/>
+      <c r="AZ178" t="inlineStr"/>
+      <c r="BA178" t="inlineStr"/>
+      <c r="BB178" t="inlineStr"/>
+      <c r="BC178" t="inlineStr"/>
+      <c r="BD178" t="inlineStr"/>
+      <c r="BE178" t="inlineStr"/>
+      <c r="BF178" t="inlineStr"/>
+      <c r="BG178" t="inlineStr"/>
+      <c r="BH178" t="inlineStr"/>
+      <c r="BI178" t="inlineStr"/>
+      <c r="BJ178" t="inlineStr"/>
+      <c r="BK178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -11641,6 +16041,26 @@
       <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr"/>
+      <c r="AT179" t="inlineStr"/>
+      <c r="AU179" t="inlineStr"/>
+      <c r="AV179" t="inlineStr"/>
+      <c r="AW179" t="inlineStr"/>
+      <c r="AX179" t="inlineStr"/>
+      <c r="AY179" t="inlineStr"/>
+      <c r="AZ179" t="inlineStr"/>
+      <c r="BA179" t="inlineStr"/>
+      <c r="BB179" t="inlineStr"/>
+      <c r="BC179" t="inlineStr"/>
+      <c r="BD179" t="inlineStr"/>
+      <c r="BE179" t="inlineStr"/>
+      <c r="BF179" t="inlineStr"/>
+      <c r="BG179" t="inlineStr"/>
+      <c r="BH179" t="inlineStr"/>
+      <c r="BI179" t="inlineStr"/>
+      <c r="BJ179" t="inlineStr"/>
+      <c r="BK179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -11694,6 +16114,26 @@
       <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr"/>
       <c r="AQ180" t="inlineStr"/>
+      <c r="AR180" t="inlineStr"/>
+      <c r="AS180" t="inlineStr"/>
+      <c r="AT180" t="inlineStr"/>
+      <c r="AU180" t="inlineStr"/>
+      <c r="AV180" t="inlineStr"/>
+      <c r="AW180" t="inlineStr"/>
+      <c r="AX180" t="inlineStr"/>
+      <c r="AY180" t="inlineStr"/>
+      <c r="AZ180" t="inlineStr"/>
+      <c r="BA180" t="inlineStr"/>
+      <c r="BB180" t="inlineStr"/>
+      <c r="BC180" t="inlineStr"/>
+      <c r="BD180" t="inlineStr"/>
+      <c r="BE180" t="inlineStr"/>
+      <c r="BF180" t="inlineStr"/>
+      <c r="BG180" t="inlineStr"/>
+      <c r="BH180" t="inlineStr"/>
+      <c r="BI180" t="inlineStr"/>
+      <c r="BJ180" t="inlineStr"/>
+      <c r="BK180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -11747,6 +16187,26 @@
       <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr"/>
+      <c r="AT181" t="inlineStr"/>
+      <c r="AU181" t="inlineStr"/>
+      <c r="AV181" t="inlineStr"/>
+      <c r="AW181" t="inlineStr"/>
+      <c r="AX181" t="inlineStr"/>
+      <c r="AY181" t="inlineStr"/>
+      <c r="AZ181" t="inlineStr"/>
+      <c r="BA181" t="inlineStr"/>
+      <c r="BB181" t="inlineStr"/>
+      <c r="BC181" t="inlineStr"/>
+      <c r="BD181" t="inlineStr"/>
+      <c r="BE181" t="inlineStr"/>
+      <c r="BF181" t="inlineStr"/>
+      <c r="BG181" t="inlineStr"/>
+      <c r="BH181" t="inlineStr"/>
+      <c r="BI181" t="inlineStr"/>
+      <c r="BJ181" t="inlineStr"/>
+      <c r="BK181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -11800,6 +16260,26 @@
       <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr"/>
       <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr"/>
+      <c r="AT182" t="inlineStr"/>
+      <c r="AU182" t="inlineStr"/>
+      <c r="AV182" t="inlineStr"/>
+      <c r="AW182" t="inlineStr"/>
+      <c r="AX182" t="inlineStr"/>
+      <c r="AY182" t="inlineStr"/>
+      <c r="AZ182" t="inlineStr"/>
+      <c r="BA182" t="inlineStr"/>
+      <c r="BB182" t="inlineStr"/>
+      <c r="BC182" t="inlineStr"/>
+      <c r="BD182" t="inlineStr"/>
+      <c r="BE182" t="inlineStr"/>
+      <c r="BF182" t="inlineStr"/>
+      <c r="BG182" t="inlineStr"/>
+      <c r="BH182" t="inlineStr"/>
+      <c r="BI182" t="inlineStr"/>
+      <c r="BJ182" t="inlineStr"/>
+      <c r="BK182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -11853,6 +16333,26 @@
       <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr"/>
       <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr"/>
+      <c r="AT183" t="inlineStr"/>
+      <c r="AU183" t="inlineStr"/>
+      <c r="AV183" t="inlineStr"/>
+      <c r="AW183" t="inlineStr"/>
+      <c r="AX183" t="inlineStr"/>
+      <c r="AY183" t="inlineStr"/>
+      <c r="AZ183" t="inlineStr"/>
+      <c r="BA183" t="inlineStr"/>
+      <c r="BB183" t="inlineStr"/>
+      <c r="BC183" t="inlineStr"/>
+      <c r="BD183" t="inlineStr"/>
+      <c r="BE183" t="inlineStr"/>
+      <c r="BF183" t="inlineStr"/>
+      <c r="BG183" t="inlineStr"/>
+      <c r="BH183" t="inlineStr"/>
+      <c r="BI183" t="inlineStr"/>
+      <c r="BJ183" t="inlineStr"/>
+      <c r="BK183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -11906,6 +16406,26 @@
       <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr"/>
       <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr"/>
+      <c r="AT184" t="inlineStr"/>
+      <c r="AU184" t="inlineStr"/>
+      <c r="AV184" t="inlineStr"/>
+      <c r="AW184" t="inlineStr"/>
+      <c r="AX184" t="inlineStr"/>
+      <c r="AY184" t="inlineStr"/>
+      <c r="AZ184" t="inlineStr"/>
+      <c r="BA184" t="inlineStr"/>
+      <c r="BB184" t="inlineStr"/>
+      <c r="BC184" t="inlineStr"/>
+      <c r="BD184" t="inlineStr"/>
+      <c r="BE184" t="inlineStr"/>
+      <c r="BF184" t="inlineStr"/>
+      <c r="BG184" t="inlineStr"/>
+      <c r="BH184" t="inlineStr"/>
+      <c r="BI184" t="inlineStr"/>
+      <c r="BJ184" t="inlineStr"/>
+      <c r="BK184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -11959,6 +16479,26 @@
       <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr"/>
       <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr"/>
+      <c r="AT185" t="inlineStr"/>
+      <c r="AU185" t="inlineStr"/>
+      <c r="AV185" t="inlineStr"/>
+      <c r="AW185" t="inlineStr"/>
+      <c r="AX185" t="inlineStr"/>
+      <c r="AY185" t="inlineStr"/>
+      <c r="AZ185" t="inlineStr"/>
+      <c r="BA185" t="inlineStr"/>
+      <c r="BB185" t="inlineStr"/>
+      <c r="BC185" t="inlineStr"/>
+      <c r="BD185" t="inlineStr"/>
+      <c r="BE185" t="inlineStr"/>
+      <c r="BF185" t="inlineStr"/>
+      <c r="BG185" t="inlineStr"/>
+      <c r="BH185" t="inlineStr"/>
+      <c r="BI185" t="inlineStr"/>
+      <c r="BJ185" t="inlineStr"/>
+      <c r="BK185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -12012,6 +16552,26 @@
       <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr"/>
       <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr"/>
+      <c r="AT186" t="inlineStr"/>
+      <c r="AU186" t="inlineStr"/>
+      <c r="AV186" t="inlineStr"/>
+      <c r="AW186" t="inlineStr"/>
+      <c r="AX186" t="inlineStr"/>
+      <c r="AY186" t="inlineStr"/>
+      <c r="AZ186" t="inlineStr"/>
+      <c r="BA186" t="inlineStr"/>
+      <c r="BB186" t="inlineStr"/>
+      <c r="BC186" t="inlineStr"/>
+      <c r="BD186" t="inlineStr"/>
+      <c r="BE186" t="inlineStr"/>
+      <c r="BF186" t="inlineStr"/>
+      <c r="BG186" t="inlineStr"/>
+      <c r="BH186" t="inlineStr"/>
+      <c r="BI186" t="inlineStr"/>
+      <c r="BJ186" t="inlineStr"/>
+      <c r="BK186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -12065,6 +16625,26 @@
       <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr"/>
       <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr"/>
+      <c r="AT187" t="inlineStr"/>
+      <c r="AU187" t="inlineStr"/>
+      <c r="AV187" t="inlineStr"/>
+      <c r="AW187" t="inlineStr"/>
+      <c r="AX187" t="inlineStr"/>
+      <c r="AY187" t="inlineStr"/>
+      <c r="AZ187" t="inlineStr"/>
+      <c r="BA187" t="inlineStr"/>
+      <c r="BB187" t="inlineStr"/>
+      <c r="BC187" t="inlineStr"/>
+      <c r="BD187" t="inlineStr"/>
+      <c r="BE187" t="inlineStr"/>
+      <c r="BF187" t="inlineStr"/>
+      <c r="BG187" t="inlineStr"/>
+      <c r="BH187" t="inlineStr"/>
+      <c r="BI187" t="inlineStr"/>
+      <c r="BJ187" t="inlineStr"/>
+      <c r="BK187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -12118,6 +16698,26 @@
       <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr"/>
       <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr"/>
+      <c r="AT188" t="inlineStr"/>
+      <c r="AU188" t="inlineStr"/>
+      <c r="AV188" t="inlineStr"/>
+      <c r="AW188" t="inlineStr"/>
+      <c r="AX188" t="inlineStr"/>
+      <c r="AY188" t="inlineStr"/>
+      <c r="AZ188" t="inlineStr"/>
+      <c r="BA188" t="inlineStr"/>
+      <c r="BB188" t="inlineStr"/>
+      <c r="BC188" t="inlineStr"/>
+      <c r="BD188" t="inlineStr"/>
+      <c r="BE188" t="inlineStr"/>
+      <c r="BF188" t="inlineStr"/>
+      <c r="BG188" t="inlineStr"/>
+      <c r="BH188" t="inlineStr"/>
+      <c r="BI188" t="inlineStr"/>
+      <c r="BJ188" t="inlineStr"/>
+      <c r="BK188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -12171,6 +16771,26 @@
       <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr"/>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr"/>
+      <c r="AT189" t="inlineStr"/>
+      <c r="AU189" t="inlineStr"/>
+      <c r="AV189" t="inlineStr"/>
+      <c r="AW189" t="inlineStr"/>
+      <c r="AX189" t="inlineStr"/>
+      <c r="AY189" t="inlineStr"/>
+      <c r="AZ189" t="inlineStr"/>
+      <c r="BA189" t="inlineStr"/>
+      <c r="BB189" t="inlineStr"/>
+      <c r="BC189" t="inlineStr"/>
+      <c r="BD189" t="inlineStr"/>
+      <c r="BE189" t="inlineStr"/>
+      <c r="BF189" t="inlineStr"/>
+      <c r="BG189" t="inlineStr"/>
+      <c r="BH189" t="inlineStr"/>
+      <c r="BI189" t="inlineStr"/>
+      <c r="BJ189" t="inlineStr"/>
+      <c r="BK189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -12224,6 +16844,26 @@
       <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr"/>
       <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr"/>
+      <c r="AT190" t="inlineStr"/>
+      <c r="AU190" t="inlineStr"/>
+      <c r="AV190" t="inlineStr"/>
+      <c r="AW190" t="inlineStr"/>
+      <c r="AX190" t="inlineStr"/>
+      <c r="AY190" t="inlineStr"/>
+      <c r="AZ190" t="inlineStr"/>
+      <c r="BA190" t="inlineStr"/>
+      <c r="BB190" t="inlineStr"/>
+      <c r="BC190" t="inlineStr"/>
+      <c r="BD190" t="inlineStr"/>
+      <c r="BE190" t="inlineStr"/>
+      <c r="BF190" t="inlineStr"/>
+      <c r="BG190" t="inlineStr"/>
+      <c r="BH190" t="inlineStr"/>
+      <c r="BI190" t="inlineStr"/>
+      <c r="BJ190" t="inlineStr"/>
+      <c r="BK190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -12277,6 +16917,26 @@
       <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr"/>
       <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr"/>
+      <c r="AT191" t="inlineStr"/>
+      <c r="AU191" t="inlineStr"/>
+      <c r="AV191" t="inlineStr"/>
+      <c r="AW191" t="inlineStr"/>
+      <c r="AX191" t="inlineStr"/>
+      <c r="AY191" t="inlineStr"/>
+      <c r="AZ191" t="inlineStr"/>
+      <c r="BA191" t="inlineStr"/>
+      <c r="BB191" t="inlineStr"/>
+      <c r="BC191" t="inlineStr"/>
+      <c r="BD191" t="inlineStr"/>
+      <c r="BE191" t="inlineStr"/>
+      <c r="BF191" t="inlineStr"/>
+      <c r="BG191" t="inlineStr"/>
+      <c r="BH191" t="inlineStr"/>
+      <c r="BI191" t="inlineStr"/>
+      <c r="BJ191" t="inlineStr"/>
+      <c r="BK191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -12330,6 +16990,26 @@
       <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr"/>
+      <c r="AT192" t="inlineStr"/>
+      <c r="AU192" t="inlineStr"/>
+      <c r="AV192" t="inlineStr"/>
+      <c r="AW192" t="inlineStr"/>
+      <c r="AX192" t="inlineStr"/>
+      <c r="AY192" t="inlineStr"/>
+      <c r="AZ192" t="inlineStr"/>
+      <c r="BA192" t="inlineStr"/>
+      <c r="BB192" t="inlineStr"/>
+      <c r="BC192" t="inlineStr"/>
+      <c r="BD192" t="inlineStr"/>
+      <c r="BE192" t="inlineStr"/>
+      <c r="BF192" t="inlineStr"/>
+      <c r="BG192" t="inlineStr"/>
+      <c r="BH192" t="inlineStr"/>
+      <c r="BI192" t="inlineStr"/>
+      <c r="BJ192" t="inlineStr"/>
+      <c r="BK192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -12383,6 +17063,26 @@
       <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr"/>
       <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr"/>
+      <c r="AT193" t="inlineStr"/>
+      <c r="AU193" t="inlineStr"/>
+      <c r="AV193" t="inlineStr"/>
+      <c r="AW193" t="inlineStr"/>
+      <c r="AX193" t="inlineStr"/>
+      <c r="AY193" t="inlineStr"/>
+      <c r="AZ193" t="inlineStr"/>
+      <c r="BA193" t="inlineStr"/>
+      <c r="BB193" t="inlineStr"/>
+      <c r="BC193" t="inlineStr"/>
+      <c r="BD193" t="inlineStr"/>
+      <c r="BE193" t="inlineStr"/>
+      <c r="BF193" t="inlineStr"/>
+      <c r="BG193" t="inlineStr"/>
+      <c r="BH193" t="inlineStr"/>
+      <c r="BI193" t="inlineStr"/>
+      <c r="BJ193" t="inlineStr"/>
+      <c r="BK193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -12436,6 +17136,26 @@
       <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr"/>
       <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr"/>
+      <c r="AT194" t="inlineStr"/>
+      <c r="AU194" t="inlineStr"/>
+      <c r="AV194" t="inlineStr"/>
+      <c r="AW194" t="inlineStr"/>
+      <c r="AX194" t="inlineStr"/>
+      <c r="AY194" t="inlineStr"/>
+      <c r="AZ194" t="inlineStr"/>
+      <c r="BA194" t="inlineStr"/>
+      <c r="BB194" t="inlineStr"/>
+      <c r="BC194" t="inlineStr"/>
+      <c r="BD194" t="inlineStr"/>
+      <c r="BE194" t="inlineStr"/>
+      <c r="BF194" t="inlineStr"/>
+      <c r="BG194" t="inlineStr"/>
+      <c r="BH194" t="inlineStr"/>
+      <c r="BI194" t="inlineStr"/>
+      <c r="BJ194" t="inlineStr"/>
+      <c r="BK194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -12489,6 +17209,26 @@
       <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="inlineStr"/>
       <c r="AQ195" t="inlineStr"/>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr"/>
+      <c r="AT195" t="inlineStr"/>
+      <c r="AU195" t="inlineStr"/>
+      <c r="AV195" t="inlineStr"/>
+      <c r="AW195" t="inlineStr"/>
+      <c r="AX195" t="inlineStr"/>
+      <c r="AY195" t="inlineStr"/>
+      <c r="AZ195" t="inlineStr"/>
+      <c r="BA195" t="inlineStr"/>
+      <c r="BB195" t="inlineStr"/>
+      <c r="BC195" t="inlineStr"/>
+      <c r="BD195" t="inlineStr"/>
+      <c r="BE195" t="inlineStr"/>
+      <c r="BF195" t="inlineStr"/>
+      <c r="BG195" t="inlineStr"/>
+      <c r="BH195" t="inlineStr"/>
+      <c r="BI195" t="inlineStr"/>
+      <c r="BJ195" t="inlineStr"/>
+      <c r="BK195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -12542,6 +17282,26 @@
       <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr"/>
+      <c r="AT196" t="inlineStr"/>
+      <c r="AU196" t="inlineStr"/>
+      <c r="AV196" t="inlineStr"/>
+      <c r="AW196" t="inlineStr"/>
+      <c r="AX196" t="inlineStr"/>
+      <c r="AY196" t="inlineStr"/>
+      <c r="AZ196" t="inlineStr"/>
+      <c r="BA196" t="inlineStr"/>
+      <c r="BB196" t="inlineStr"/>
+      <c r="BC196" t="inlineStr"/>
+      <c r="BD196" t="inlineStr"/>
+      <c r="BE196" t="inlineStr"/>
+      <c r="BF196" t="inlineStr"/>
+      <c r="BG196" t="inlineStr"/>
+      <c r="BH196" t="inlineStr"/>
+      <c r="BI196" t="inlineStr"/>
+      <c r="BJ196" t="inlineStr"/>
+      <c r="BK196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -12595,6 +17355,26 @@
       <c r="AO197" t="inlineStr"/>
       <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr"/>
+      <c r="AT197" t="inlineStr"/>
+      <c r="AU197" t="inlineStr"/>
+      <c r="AV197" t="inlineStr"/>
+      <c r="AW197" t="inlineStr"/>
+      <c r="AX197" t="inlineStr"/>
+      <c r="AY197" t="inlineStr"/>
+      <c r="AZ197" t="inlineStr"/>
+      <c r="BA197" t="inlineStr"/>
+      <c r="BB197" t="inlineStr"/>
+      <c r="BC197" t="inlineStr"/>
+      <c r="BD197" t="inlineStr"/>
+      <c r="BE197" t="inlineStr"/>
+      <c r="BF197" t="inlineStr"/>
+      <c r="BG197" t="inlineStr"/>
+      <c r="BH197" t="inlineStr"/>
+      <c r="BI197" t="inlineStr"/>
+      <c r="BJ197" t="inlineStr"/>
+      <c r="BK197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -12648,6 +17428,26 @@
       <c r="AO198" t="inlineStr"/>
       <c r="AP198" t="inlineStr"/>
       <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr"/>
+      <c r="AT198" t="inlineStr"/>
+      <c r="AU198" t="inlineStr"/>
+      <c r="AV198" t="inlineStr"/>
+      <c r="AW198" t="inlineStr"/>
+      <c r="AX198" t="inlineStr"/>
+      <c r="AY198" t="inlineStr"/>
+      <c r="AZ198" t="inlineStr"/>
+      <c r="BA198" t="inlineStr"/>
+      <c r="BB198" t="inlineStr"/>
+      <c r="BC198" t="inlineStr"/>
+      <c r="BD198" t="inlineStr"/>
+      <c r="BE198" t="inlineStr"/>
+      <c r="BF198" t="inlineStr"/>
+      <c r="BG198" t="inlineStr"/>
+      <c r="BH198" t="inlineStr"/>
+      <c r="BI198" t="inlineStr"/>
+      <c r="BJ198" t="inlineStr"/>
+      <c r="BK198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -12701,6 +17501,26 @@
       <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="inlineStr"/>
       <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr"/>
+      <c r="AT199" t="inlineStr"/>
+      <c r="AU199" t="inlineStr"/>
+      <c r="AV199" t="inlineStr"/>
+      <c r="AW199" t="inlineStr"/>
+      <c r="AX199" t="inlineStr"/>
+      <c r="AY199" t="inlineStr"/>
+      <c r="AZ199" t="inlineStr"/>
+      <c r="BA199" t="inlineStr"/>
+      <c r="BB199" t="inlineStr"/>
+      <c r="BC199" t="inlineStr"/>
+      <c r="BD199" t="inlineStr"/>
+      <c r="BE199" t="inlineStr"/>
+      <c r="BF199" t="inlineStr"/>
+      <c r="BG199" t="inlineStr"/>
+      <c r="BH199" t="inlineStr"/>
+      <c r="BI199" t="inlineStr"/>
+      <c r="BJ199" t="inlineStr"/>
+      <c r="BK199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -12754,6 +17574,26 @@
       <c r="AO200" t="inlineStr"/>
       <c r="AP200" t="inlineStr"/>
       <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr"/>
+      <c r="AT200" t="inlineStr"/>
+      <c r="AU200" t="inlineStr"/>
+      <c r="AV200" t="inlineStr"/>
+      <c r="AW200" t="inlineStr"/>
+      <c r="AX200" t="inlineStr"/>
+      <c r="AY200" t="inlineStr"/>
+      <c r="AZ200" t="inlineStr"/>
+      <c r="BA200" t="inlineStr"/>
+      <c r="BB200" t="inlineStr"/>
+      <c r="BC200" t="inlineStr"/>
+      <c r="BD200" t="inlineStr"/>
+      <c r="BE200" t="inlineStr"/>
+      <c r="BF200" t="inlineStr"/>
+      <c r="BG200" t="inlineStr"/>
+      <c r="BH200" t="inlineStr"/>
+      <c r="BI200" t="inlineStr"/>
+      <c r="BJ200" t="inlineStr"/>
+      <c r="BK200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -12807,6 +17647,26 @@
       <c r="AO201" t="inlineStr"/>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr"/>
+      <c r="AT201" t="inlineStr"/>
+      <c r="AU201" t="inlineStr"/>
+      <c r="AV201" t="inlineStr"/>
+      <c r="AW201" t="inlineStr"/>
+      <c r="AX201" t="inlineStr"/>
+      <c r="AY201" t="inlineStr"/>
+      <c r="AZ201" t="inlineStr"/>
+      <c r="BA201" t="inlineStr"/>
+      <c r="BB201" t="inlineStr"/>
+      <c r="BC201" t="inlineStr"/>
+      <c r="BD201" t="inlineStr"/>
+      <c r="BE201" t="inlineStr"/>
+      <c r="BF201" t="inlineStr"/>
+      <c r="BG201" t="inlineStr"/>
+      <c r="BH201" t="inlineStr"/>
+      <c r="BI201" t="inlineStr"/>
+      <c r="BJ201" t="inlineStr"/>
+      <c r="BK201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -12860,6 +17720,26 @@
       <c r="AO202" t="inlineStr"/>
       <c r="AP202" t="inlineStr"/>
       <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr"/>
+      <c r="AT202" t="inlineStr"/>
+      <c r="AU202" t="inlineStr"/>
+      <c r="AV202" t="inlineStr"/>
+      <c r="AW202" t="inlineStr"/>
+      <c r="AX202" t="inlineStr"/>
+      <c r="AY202" t="inlineStr"/>
+      <c r="AZ202" t="inlineStr"/>
+      <c r="BA202" t="inlineStr"/>
+      <c r="BB202" t="inlineStr"/>
+      <c r="BC202" t="inlineStr"/>
+      <c r="BD202" t="inlineStr"/>
+      <c r="BE202" t="inlineStr"/>
+      <c r="BF202" t="inlineStr"/>
+      <c r="BG202" t="inlineStr"/>
+      <c r="BH202" t="inlineStr"/>
+      <c r="BI202" t="inlineStr"/>
+      <c r="BJ202" t="inlineStr"/>
+      <c r="BK202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -12913,6 +17793,26 @@
       <c r="AO203" t="inlineStr"/>
       <c r="AP203" t="inlineStr"/>
       <c r="AQ203" t="inlineStr"/>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr"/>
+      <c r="AT203" t="inlineStr"/>
+      <c r="AU203" t="inlineStr"/>
+      <c r="AV203" t="inlineStr"/>
+      <c r="AW203" t="inlineStr"/>
+      <c r="AX203" t="inlineStr"/>
+      <c r="AY203" t="inlineStr"/>
+      <c r="AZ203" t="inlineStr"/>
+      <c r="BA203" t="inlineStr"/>
+      <c r="BB203" t="inlineStr"/>
+      <c r="BC203" t="inlineStr"/>
+      <c r="BD203" t="inlineStr"/>
+      <c r="BE203" t="inlineStr"/>
+      <c r="BF203" t="inlineStr"/>
+      <c r="BG203" t="inlineStr"/>
+      <c r="BH203" t="inlineStr"/>
+      <c r="BI203" t="inlineStr"/>
+      <c r="BJ203" t="inlineStr"/>
+      <c r="BK203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -12966,6 +17866,26 @@
       <c r="AO204" t="inlineStr"/>
       <c r="AP204" t="inlineStr"/>
       <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr"/>
+      <c r="AT204" t="inlineStr"/>
+      <c r="AU204" t="inlineStr"/>
+      <c r="AV204" t="inlineStr"/>
+      <c r="AW204" t="inlineStr"/>
+      <c r="AX204" t="inlineStr"/>
+      <c r="AY204" t="inlineStr"/>
+      <c r="AZ204" t="inlineStr"/>
+      <c r="BA204" t="inlineStr"/>
+      <c r="BB204" t="inlineStr"/>
+      <c r="BC204" t="inlineStr"/>
+      <c r="BD204" t="inlineStr"/>
+      <c r="BE204" t="inlineStr"/>
+      <c r="BF204" t="inlineStr"/>
+      <c r="BG204" t="inlineStr"/>
+      <c r="BH204" t="inlineStr"/>
+      <c r="BI204" t="inlineStr"/>
+      <c r="BJ204" t="inlineStr"/>
+      <c r="BK204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -13019,6 +17939,26 @@
       <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr"/>
       <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr"/>
+      <c r="AT205" t="inlineStr"/>
+      <c r="AU205" t="inlineStr"/>
+      <c r="AV205" t="inlineStr"/>
+      <c r="AW205" t="inlineStr"/>
+      <c r="AX205" t="inlineStr"/>
+      <c r="AY205" t="inlineStr"/>
+      <c r="AZ205" t="inlineStr"/>
+      <c r="BA205" t="inlineStr"/>
+      <c r="BB205" t="inlineStr"/>
+      <c r="BC205" t="inlineStr"/>
+      <c r="BD205" t="inlineStr"/>
+      <c r="BE205" t="inlineStr"/>
+      <c r="BF205" t="inlineStr"/>
+      <c r="BG205" t="inlineStr"/>
+      <c r="BH205" t="inlineStr"/>
+      <c r="BI205" t="inlineStr"/>
+      <c r="BJ205" t="inlineStr"/>
+      <c r="BK205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -13072,6 +18012,26 @@
       <c r="AO206" t="inlineStr"/>
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr"/>
+      <c r="AT206" t="inlineStr"/>
+      <c r="AU206" t="inlineStr"/>
+      <c r="AV206" t="inlineStr"/>
+      <c r="AW206" t="inlineStr"/>
+      <c r="AX206" t="inlineStr"/>
+      <c r="AY206" t="inlineStr"/>
+      <c r="AZ206" t="inlineStr"/>
+      <c r="BA206" t="inlineStr"/>
+      <c r="BB206" t="inlineStr"/>
+      <c r="BC206" t="inlineStr"/>
+      <c r="BD206" t="inlineStr"/>
+      <c r="BE206" t="inlineStr"/>
+      <c r="BF206" t="inlineStr"/>
+      <c r="BG206" t="inlineStr"/>
+      <c r="BH206" t="inlineStr"/>
+      <c r="BI206" t="inlineStr"/>
+      <c r="BJ206" t="inlineStr"/>
+      <c r="BK206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -13125,6 +18085,26 @@
       <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr"/>
       <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr"/>
+      <c r="AT207" t="inlineStr"/>
+      <c r="AU207" t="inlineStr"/>
+      <c r="AV207" t="inlineStr"/>
+      <c r="AW207" t="inlineStr"/>
+      <c r="AX207" t="inlineStr"/>
+      <c r="AY207" t="inlineStr"/>
+      <c r="AZ207" t="inlineStr"/>
+      <c r="BA207" t="inlineStr"/>
+      <c r="BB207" t="inlineStr"/>
+      <c r="BC207" t="inlineStr"/>
+      <c r="BD207" t="inlineStr"/>
+      <c r="BE207" t="inlineStr"/>
+      <c r="BF207" t="inlineStr"/>
+      <c r="BG207" t="inlineStr"/>
+      <c r="BH207" t="inlineStr"/>
+      <c r="BI207" t="inlineStr"/>
+      <c r="BJ207" t="inlineStr"/>
+      <c r="BK207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -13178,6 +18158,26 @@
       <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr"/>
       <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr"/>
+      <c r="AT208" t="inlineStr"/>
+      <c r="AU208" t="inlineStr"/>
+      <c r="AV208" t="inlineStr"/>
+      <c r="AW208" t="inlineStr"/>
+      <c r="AX208" t="inlineStr"/>
+      <c r="AY208" t="inlineStr"/>
+      <c r="AZ208" t="inlineStr"/>
+      <c r="BA208" t="inlineStr"/>
+      <c r="BB208" t="inlineStr"/>
+      <c r="BC208" t="inlineStr"/>
+      <c r="BD208" t="inlineStr"/>
+      <c r="BE208" t="inlineStr"/>
+      <c r="BF208" t="inlineStr"/>
+      <c r="BG208" t="inlineStr"/>
+      <c r="BH208" t="inlineStr"/>
+      <c r="BI208" t="inlineStr"/>
+      <c r="BJ208" t="inlineStr"/>
+      <c r="BK208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -13231,6 +18231,26 @@
       <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr"/>
       <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr"/>
+      <c r="AT209" t="inlineStr"/>
+      <c r="AU209" t="inlineStr"/>
+      <c r="AV209" t="inlineStr"/>
+      <c r="AW209" t="inlineStr"/>
+      <c r="AX209" t="inlineStr"/>
+      <c r="AY209" t="inlineStr"/>
+      <c r="AZ209" t="inlineStr"/>
+      <c r="BA209" t="inlineStr"/>
+      <c r="BB209" t="inlineStr"/>
+      <c r="BC209" t="inlineStr"/>
+      <c r="BD209" t="inlineStr"/>
+      <c r="BE209" t="inlineStr"/>
+      <c r="BF209" t="inlineStr"/>
+      <c r="BG209" t="inlineStr"/>
+      <c r="BH209" t="inlineStr"/>
+      <c r="BI209" t="inlineStr"/>
+      <c r="BJ209" t="inlineStr"/>
+      <c r="BK209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -13284,6 +18304,26 @@
       <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr"/>
       <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr"/>
+      <c r="AT210" t="inlineStr"/>
+      <c r="AU210" t="inlineStr"/>
+      <c r="AV210" t="inlineStr"/>
+      <c r="AW210" t="inlineStr"/>
+      <c r="AX210" t="inlineStr"/>
+      <c r="AY210" t="inlineStr"/>
+      <c r="AZ210" t="inlineStr"/>
+      <c r="BA210" t="inlineStr"/>
+      <c r="BB210" t="inlineStr"/>
+      <c r="BC210" t="inlineStr"/>
+      <c r="BD210" t="inlineStr"/>
+      <c r="BE210" t="inlineStr"/>
+      <c r="BF210" t="inlineStr"/>
+      <c r="BG210" t="inlineStr"/>
+      <c r="BH210" t="inlineStr"/>
+      <c r="BI210" t="inlineStr"/>
+      <c r="BJ210" t="inlineStr"/>
+      <c r="BK210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -13337,6 +18377,26 @@
       <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr"/>
       <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr"/>
+      <c r="AT211" t="inlineStr"/>
+      <c r="AU211" t="inlineStr"/>
+      <c r="AV211" t="inlineStr"/>
+      <c r="AW211" t="inlineStr"/>
+      <c r="AX211" t="inlineStr"/>
+      <c r="AY211" t="inlineStr"/>
+      <c r="AZ211" t="inlineStr"/>
+      <c r="BA211" t="inlineStr"/>
+      <c r="BB211" t="inlineStr"/>
+      <c r="BC211" t="inlineStr"/>
+      <c r="BD211" t="inlineStr"/>
+      <c r="BE211" t="inlineStr"/>
+      <c r="BF211" t="inlineStr"/>
+      <c r="BG211" t="inlineStr"/>
+      <c r="BH211" t="inlineStr"/>
+      <c r="BI211" t="inlineStr"/>
+      <c r="BJ211" t="inlineStr"/>
+      <c r="BK211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -13390,6 +18450,26 @@
       <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr"/>
       <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr"/>
+      <c r="AT212" t="inlineStr"/>
+      <c r="AU212" t="inlineStr"/>
+      <c r="AV212" t="inlineStr"/>
+      <c r="AW212" t="inlineStr"/>
+      <c r="AX212" t="inlineStr"/>
+      <c r="AY212" t="inlineStr"/>
+      <c r="AZ212" t="inlineStr"/>
+      <c r="BA212" t="inlineStr"/>
+      <c r="BB212" t="inlineStr"/>
+      <c r="BC212" t="inlineStr"/>
+      <c r="BD212" t="inlineStr"/>
+      <c r="BE212" t="inlineStr"/>
+      <c r="BF212" t="inlineStr"/>
+      <c r="BG212" t="inlineStr"/>
+      <c r="BH212" t="inlineStr"/>
+      <c r="BI212" t="inlineStr"/>
+      <c r="BJ212" t="inlineStr"/>
+      <c r="BK212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -13443,6 +18523,26 @@
       <c r="AO213" t="inlineStr"/>
       <c r="AP213" t="inlineStr"/>
       <c r="AQ213" t="inlineStr"/>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr"/>
+      <c r="AT213" t="inlineStr"/>
+      <c r="AU213" t="inlineStr"/>
+      <c r="AV213" t="inlineStr"/>
+      <c r="AW213" t="inlineStr"/>
+      <c r="AX213" t="inlineStr"/>
+      <c r="AY213" t="inlineStr"/>
+      <c r="AZ213" t="inlineStr"/>
+      <c r="BA213" t="inlineStr"/>
+      <c r="BB213" t="inlineStr"/>
+      <c r="BC213" t="inlineStr"/>
+      <c r="BD213" t="inlineStr"/>
+      <c r="BE213" t="inlineStr"/>
+      <c r="BF213" t="inlineStr"/>
+      <c r="BG213" t="inlineStr"/>
+      <c r="BH213" t="inlineStr"/>
+      <c r="BI213" t="inlineStr"/>
+      <c r="BJ213" t="inlineStr"/>
+      <c r="BK213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -13496,6 +18596,26 @@
       <c r="AO214" t="inlineStr"/>
       <c r="AP214" t="inlineStr"/>
       <c r="AQ214" t="inlineStr"/>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr"/>
+      <c r="AT214" t="inlineStr"/>
+      <c r="AU214" t="inlineStr"/>
+      <c r="AV214" t="inlineStr"/>
+      <c r="AW214" t="inlineStr"/>
+      <c r="AX214" t="inlineStr"/>
+      <c r="AY214" t="inlineStr"/>
+      <c r="AZ214" t="inlineStr"/>
+      <c r="BA214" t="inlineStr"/>
+      <c r="BB214" t="inlineStr"/>
+      <c r="BC214" t="inlineStr"/>
+      <c r="BD214" t="inlineStr"/>
+      <c r="BE214" t="inlineStr"/>
+      <c r="BF214" t="inlineStr"/>
+      <c r="BG214" t="inlineStr"/>
+      <c r="BH214" t="inlineStr"/>
+      <c r="BI214" t="inlineStr"/>
+      <c r="BJ214" t="inlineStr"/>
+      <c r="BK214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -13549,6 +18669,26 @@
       <c r="AO215" t="inlineStr"/>
       <c r="AP215" t="inlineStr"/>
       <c r="AQ215" t="inlineStr"/>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr"/>
+      <c r="AT215" t="inlineStr"/>
+      <c r="AU215" t="inlineStr"/>
+      <c r="AV215" t="inlineStr"/>
+      <c r="AW215" t="inlineStr"/>
+      <c r="AX215" t="inlineStr"/>
+      <c r="AY215" t="inlineStr"/>
+      <c r="AZ215" t="inlineStr"/>
+      <c r="BA215" t="inlineStr"/>
+      <c r="BB215" t="inlineStr"/>
+      <c r="BC215" t="inlineStr"/>
+      <c r="BD215" t="inlineStr"/>
+      <c r="BE215" t="inlineStr"/>
+      <c r="BF215" t="inlineStr"/>
+      <c r="BG215" t="inlineStr"/>
+      <c r="BH215" t="inlineStr"/>
+      <c r="BI215" t="inlineStr"/>
+      <c r="BJ215" t="inlineStr"/>
+      <c r="BK215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -13602,6 +18742,26 @@
       <c r="AO216" t="inlineStr"/>
       <c r="AP216" t="inlineStr"/>
       <c r="AQ216" t="inlineStr"/>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr"/>
+      <c r="AT216" t="inlineStr"/>
+      <c r="AU216" t="inlineStr"/>
+      <c r="AV216" t="inlineStr"/>
+      <c r="AW216" t="inlineStr"/>
+      <c r="AX216" t="inlineStr"/>
+      <c r="AY216" t="inlineStr"/>
+      <c r="AZ216" t="inlineStr"/>
+      <c r="BA216" t="inlineStr"/>
+      <c r="BB216" t="inlineStr"/>
+      <c r="BC216" t="inlineStr"/>
+      <c r="BD216" t="inlineStr"/>
+      <c r="BE216" t="inlineStr"/>
+      <c r="BF216" t="inlineStr"/>
+      <c r="BG216" t="inlineStr"/>
+      <c r="BH216" t="inlineStr"/>
+      <c r="BI216" t="inlineStr"/>
+      <c r="BJ216" t="inlineStr"/>
+      <c r="BK216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -13655,6 +18815,26 @@
       <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="inlineStr"/>
       <c r="AQ217" t="inlineStr"/>
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr"/>
+      <c r="AT217" t="inlineStr"/>
+      <c r="AU217" t="inlineStr"/>
+      <c r="AV217" t="inlineStr"/>
+      <c r="AW217" t="inlineStr"/>
+      <c r="AX217" t="inlineStr"/>
+      <c r="AY217" t="inlineStr"/>
+      <c r="AZ217" t="inlineStr"/>
+      <c r="BA217" t="inlineStr"/>
+      <c r="BB217" t="inlineStr"/>
+      <c r="BC217" t="inlineStr"/>
+      <c r="BD217" t="inlineStr"/>
+      <c r="BE217" t="inlineStr"/>
+      <c r="BF217" t="inlineStr"/>
+      <c r="BG217" t="inlineStr"/>
+      <c r="BH217" t="inlineStr"/>
+      <c r="BI217" t="inlineStr"/>
+      <c r="BJ217" t="inlineStr"/>
+      <c r="BK217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -13708,6 +18888,26 @@
       <c r="AO218" t="inlineStr"/>
       <c r="AP218" t="inlineStr"/>
       <c r="AQ218" t="inlineStr"/>
+      <c r="AR218" t="inlineStr"/>
+      <c r="AS218" t="inlineStr"/>
+      <c r="AT218" t="inlineStr"/>
+      <c r="AU218" t="inlineStr"/>
+      <c r="AV218" t="inlineStr"/>
+      <c r="AW218" t="inlineStr"/>
+      <c r="AX218" t="inlineStr"/>
+      <c r="AY218" t="inlineStr"/>
+      <c r="AZ218" t="inlineStr"/>
+      <c r="BA218" t="inlineStr"/>
+      <c r="BB218" t="inlineStr"/>
+      <c r="BC218" t="inlineStr"/>
+      <c r="BD218" t="inlineStr"/>
+      <c r="BE218" t="inlineStr"/>
+      <c r="BF218" t="inlineStr"/>
+      <c r="BG218" t="inlineStr"/>
+      <c r="BH218" t="inlineStr"/>
+      <c r="BI218" t="inlineStr"/>
+      <c r="BJ218" t="inlineStr"/>
+      <c r="BK218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -13761,6 +18961,26 @@
       <c r="AO219" t="inlineStr"/>
       <c r="AP219" t="inlineStr"/>
       <c r="AQ219" t="inlineStr"/>
+      <c r="AR219" t="inlineStr"/>
+      <c r="AS219" t="inlineStr"/>
+      <c r="AT219" t="inlineStr"/>
+      <c r="AU219" t="inlineStr"/>
+      <c r="AV219" t="inlineStr"/>
+      <c r="AW219" t="inlineStr"/>
+      <c r="AX219" t="inlineStr"/>
+      <c r="AY219" t="inlineStr"/>
+      <c r="AZ219" t="inlineStr"/>
+      <c r="BA219" t="inlineStr"/>
+      <c r="BB219" t="inlineStr"/>
+      <c r="BC219" t="inlineStr"/>
+      <c r="BD219" t="inlineStr"/>
+      <c r="BE219" t="inlineStr"/>
+      <c r="BF219" t="inlineStr"/>
+      <c r="BG219" t="inlineStr"/>
+      <c r="BH219" t="inlineStr"/>
+      <c r="BI219" t="inlineStr"/>
+      <c r="BJ219" t="inlineStr"/>
+      <c r="BK219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -13814,6 +19034,26 @@
       <c r="AO220" t="inlineStr"/>
       <c r="AP220" t="inlineStr"/>
       <c r="AQ220" t="inlineStr"/>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr"/>
+      <c r="AT220" t="inlineStr"/>
+      <c r="AU220" t="inlineStr"/>
+      <c r="AV220" t="inlineStr"/>
+      <c r="AW220" t="inlineStr"/>
+      <c r="AX220" t="inlineStr"/>
+      <c r="AY220" t="inlineStr"/>
+      <c r="AZ220" t="inlineStr"/>
+      <c r="BA220" t="inlineStr"/>
+      <c r="BB220" t="inlineStr"/>
+      <c r="BC220" t="inlineStr"/>
+      <c r="BD220" t="inlineStr"/>
+      <c r="BE220" t="inlineStr"/>
+      <c r="BF220" t="inlineStr"/>
+      <c r="BG220" t="inlineStr"/>
+      <c r="BH220" t="inlineStr"/>
+      <c r="BI220" t="inlineStr"/>
+      <c r="BJ220" t="inlineStr"/>
+      <c r="BK220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -13867,6 +19107,26 @@
       <c r="AO221" t="inlineStr"/>
       <c r="AP221" t="inlineStr"/>
       <c r="AQ221" t="inlineStr"/>
+      <c r="AR221" t="inlineStr"/>
+      <c r="AS221" t="inlineStr"/>
+      <c r="AT221" t="inlineStr"/>
+      <c r="AU221" t="inlineStr"/>
+      <c r="AV221" t="inlineStr"/>
+      <c r="AW221" t="inlineStr"/>
+      <c r="AX221" t="inlineStr"/>
+      <c r="AY221" t="inlineStr"/>
+      <c r="AZ221" t="inlineStr"/>
+      <c r="BA221" t="inlineStr"/>
+      <c r="BB221" t="inlineStr"/>
+      <c r="BC221" t="inlineStr"/>
+      <c r="BD221" t="inlineStr"/>
+      <c r="BE221" t="inlineStr"/>
+      <c r="BF221" t="inlineStr"/>
+      <c r="BG221" t="inlineStr"/>
+      <c r="BH221" t="inlineStr"/>
+      <c r="BI221" t="inlineStr"/>
+      <c r="BJ221" t="inlineStr"/>
+      <c r="BK221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -13920,6 +19180,26 @@
       <c r="AO222" t="inlineStr"/>
       <c r="AP222" t="inlineStr"/>
       <c r="AQ222" t="inlineStr"/>
+      <c r="AR222" t="inlineStr"/>
+      <c r="AS222" t="inlineStr"/>
+      <c r="AT222" t="inlineStr"/>
+      <c r="AU222" t="inlineStr"/>
+      <c r="AV222" t="inlineStr"/>
+      <c r="AW222" t="inlineStr"/>
+      <c r="AX222" t="inlineStr"/>
+      <c r="AY222" t="inlineStr"/>
+      <c r="AZ222" t="inlineStr"/>
+      <c r="BA222" t="inlineStr"/>
+      <c r="BB222" t="inlineStr"/>
+      <c r="BC222" t="inlineStr"/>
+      <c r="BD222" t="inlineStr"/>
+      <c r="BE222" t="inlineStr"/>
+      <c r="BF222" t="inlineStr"/>
+      <c r="BG222" t="inlineStr"/>
+      <c r="BH222" t="inlineStr"/>
+      <c r="BI222" t="inlineStr"/>
+      <c r="BJ222" t="inlineStr"/>
+      <c r="BK222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -13973,6 +19253,26 @@
       <c r="AO223" t="inlineStr"/>
       <c r="AP223" t="inlineStr"/>
       <c r="AQ223" t="inlineStr"/>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr"/>
+      <c r="AT223" t="inlineStr"/>
+      <c r="AU223" t="inlineStr"/>
+      <c r="AV223" t="inlineStr"/>
+      <c r="AW223" t="inlineStr"/>
+      <c r="AX223" t="inlineStr"/>
+      <c r="AY223" t="inlineStr"/>
+      <c r="AZ223" t="inlineStr"/>
+      <c r="BA223" t="inlineStr"/>
+      <c r="BB223" t="inlineStr"/>
+      <c r="BC223" t="inlineStr"/>
+      <c r="BD223" t="inlineStr"/>
+      <c r="BE223" t="inlineStr"/>
+      <c r="BF223" t="inlineStr"/>
+      <c r="BG223" t="inlineStr"/>
+      <c r="BH223" t="inlineStr"/>
+      <c r="BI223" t="inlineStr"/>
+      <c r="BJ223" t="inlineStr"/>
+      <c r="BK223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -14026,6 +19326,26 @@
       <c r="AO224" t="inlineStr"/>
       <c r="AP224" t="inlineStr"/>
       <c r="AQ224" t="inlineStr"/>
+      <c r="AR224" t="inlineStr"/>
+      <c r="AS224" t="inlineStr"/>
+      <c r="AT224" t="inlineStr"/>
+      <c r="AU224" t="inlineStr"/>
+      <c r="AV224" t="inlineStr"/>
+      <c r="AW224" t="inlineStr"/>
+      <c r="AX224" t="inlineStr"/>
+      <c r="AY224" t="inlineStr"/>
+      <c r="AZ224" t="inlineStr"/>
+      <c r="BA224" t="inlineStr"/>
+      <c r="BB224" t="inlineStr"/>
+      <c r="BC224" t="inlineStr"/>
+      <c r="BD224" t="inlineStr"/>
+      <c r="BE224" t="inlineStr"/>
+      <c r="BF224" t="inlineStr"/>
+      <c r="BG224" t="inlineStr"/>
+      <c r="BH224" t="inlineStr"/>
+      <c r="BI224" t="inlineStr"/>
+      <c r="BJ224" t="inlineStr"/>
+      <c r="BK224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -14079,6 +19399,26 @@
       <c r="AO225" t="inlineStr"/>
       <c r="AP225" t="inlineStr"/>
       <c r="AQ225" t="inlineStr"/>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr"/>
+      <c r="AT225" t="inlineStr"/>
+      <c r="AU225" t="inlineStr"/>
+      <c r="AV225" t="inlineStr"/>
+      <c r="AW225" t="inlineStr"/>
+      <c r="AX225" t="inlineStr"/>
+      <c r="AY225" t="inlineStr"/>
+      <c r="AZ225" t="inlineStr"/>
+      <c r="BA225" t="inlineStr"/>
+      <c r="BB225" t="inlineStr"/>
+      <c r="BC225" t="inlineStr"/>
+      <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
+      <c r="BF225" t="inlineStr"/>
+      <c r="BG225" t="inlineStr"/>
+      <c r="BH225" t="inlineStr"/>
+      <c r="BI225" t="inlineStr"/>
+      <c r="BJ225" t="inlineStr"/>
+      <c r="BK225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -14132,6 +19472,26 @@
       <c r="AO226" t="inlineStr"/>
       <c r="AP226" t="inlineStr"/>
       <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
+      <c r="AT226" t="inlineStr"/>
+      <c r="AU226" t="inlineStr"/>
+      <c r="AV226" t="inlineStr"/>
+      <c r="AW226" t="inlineStr"/>
+      <c r="AX226" t="inlineStr"/>
+      <c r="AY226" t="inlineStr"/>
+      <c r="AZ226" t="inlineStr"/>
+      <c r="BA226" t="inlineStr"/>
+      <c r="BB226" t="inlineStr"/>
+      <c r="BC226" t="inlineStr"/>
+      <c r="BD226" t="inlineStr"/>
+      <c r="BE226" t="inlineStr"/>
+      <c r="BF226" t="inlineStr"/>
+      <c r="BG226" t="inlineStr"/>
+      <c r="BH226" t="inlineStr"/>
+      <c r="BI226" t="inlineStr"/>
+      <c r="BJ226" t="inlineStr"/>
+      <c r="BK226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -14185,6 +19545,26 @@
       <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr"/>
       <c r="AQ227" t="inlineStr"/>
+      <c r="AR227" t="inlineStr"/>
+      <c r="AS227" t="inlineStr"/>
+      <c r="AT227" t="inlineStr"/>
+      <c r="AU227" t="inlineStr"/>
+      <c r="AV227" t="inlineStr"/>
+      <c r="AW227" t="inlineStr"/>
+      <c r="AX227" t="inlineStr"/>
+      <c r="AY227" t="inlineStr"/>
+      <c r="AZ227" t="inlineStr"/>
+      <c r="BA227" t="inlineStr"/>
+      <c r="BB227" t="inlineStr"/>
+      <c r="BC227" t="inlineStr"/>
+      <c r="BD227" t="inlineStr"/>
+      <c r="BE227" t="inlineStr"/>
+      <c r="BF227" t="inlineStr"/>
+      <c r="BG227" t="inlineStr"/>
+      <c r="BH227" t="inlineStr"/>
+      <c r="BI227" t="inlineStr"/>
+      <c r="BJ227" t="inlineStr"/>
+      <c r="BK227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -14238,6 +19618,26 @@
       <c r="AO228" t="inlineStr"/>
       <c r="AP228" t="inlineStr"/>
       <c r="AQ228" t="inlineStr"/>
+      <c r="AR228" t="inlineStr"/>
+      <c r="AS228" t="inlineStr"/>
+      <c r="AT228" t="inlineStr"/>
+      <c r="AU228" t="inlineStr"/>
+      <c r="AV228" t="inlineStr"/>
+      <c r="AW228" t="inlineStr"/>
+      <c r="AX228" t="inlineStr"/>
+      <c r="AY228" t="inlineStr"/>
+      <c r="AZ228" t="inlineStr"/>
+      <c r="BA228" t="inlineStr"/>
+      <c r="BB228" t="inlineStr"/>
+      <c r="BC228" t="inlineStr"/>
+      <c r="BD228" t="inlineStr"/>
+      <c r="BE228" t="inlineStr"/>
+      <c r="BF228" t="inlineStr"/>
+      <c r="BG228" t="inlineStr"/>
+      <c r="BH228" t="inlineStr"/>
+      <c r="BI228" t="inlineStr"/>
+      <c r="BJ228" t="inlineStr"/>
+      <c r="BK228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -14291,6 +19691,26 @@
       <c r="AO229" t="inlineStr"/>
       <c r="AP229" t="inlineStr"/>
       <c r="AQ229" t="inlineStr"/>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr"/>
+      <c r="AT229" t="inlineStr"/>
+      <c r="AU229" t="inlineStr"/>
+      <c r="AV229" t="inlineStr"/>
+      <c r="AW229" t="inlineStr"/>
+      <c r="AX229" t="inlineStr"/>
+      <c r="AY229" t="inlineStr"/>
+      <c r="AZ229" t="inlineStr"/>
+      <c r="BA229" t="inlineStr"/>
+      <c r="BB229" t="inlineStr"/>
+      <c r="BC229" t="inlineStr"/>
+      <c r="BD229" t="inlineStr"/>
+      <c r="BE229" t="inlineStr"/>
+      <c r="BF229" t="inlineStr"/>
+      <c r="BG229" t="inlineStr"/>
+      <c r="BH229" t="inlineStr"/>
+      <c r="BI229" t="inlineStr"/>
+      <c r="BJ229" t="inlineStr"/>
+      <c r="BK229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -14344,6 +19764,26 @@
       <c r="AO230" t="inlineStr"/>
       <c r="AP230" t="inlineStr"/>
       <c r="AQ230" t="inlineStr"/>
+      <c r="AR230" t="inlineStr"/>
+      <c r="AS230" t="inlineStr"/>
+      <c r="AT230" t="inlineStr"/>
+      <c r="AU230" t="inlineStr"/>
+      <c r="AV230" t="inlineStr"/>
+      <c r="AW230" t="inlineStr"/>
+      <c r="AX230" t="inlineStr"/>
+      <c r="AY230" t="inlineStr"/>
+      <c r="AZ230" t="inlineStr"/>
+      <c r="BA230" t="inlineStr"/>
+      <c r="BB230" t="inlineStr"/>
+      <c r="BC230" t="inlineStr"/>
+      <c r="BD230" t="inlineStr"/>
+      <c r="BE230" t="inlineStr"/>
+      <c r="BF230" t="inlineStr"/>
+      <c r="BG230" t="inlineStr"/>
+      <c r="BH230" t="inlineStr"/>
+      <c r="BI230" t="inlineStr"/>
+      <c r="BJ230" t="inlineStr"/>
+      <c r="BK230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -14397,6 +19837,26 @@
       <c r="AO231" t="inlineStr"/>
       <c r="AP231" t="inlineStr"/>
       <c r="AQ231" t="inlineStr"/>
+      <c r="AR231" t="inlineStr"/>
+      <c r="AS231" t="inlineStr"/>
+      <c r="AT231" t="inlineStr"/>
+      <c r="AU231" t="inlineStr"/>
+      <c r="AV231" t="inlineStr"/>
+      <c r="AW231" t="inlineStr"/>
+      <c r="AX231" t="inlineStr"/>
+      <c r="AY231" t="inlineStr"/>
+      <c r="AZ231" t="inlineStr"/>
+      <c r="BA231" t="inlineStr"/>
+      <c r="BB231" t="inlineStr"/>
+      <c r="BC231" t="inlineStr"/>
+      <c r="BD231" t="inlineStr"/>
+      <c r="BE231" t="inlineStr"/>
+      <c r="BF231" t="inlineStr"/>
+      <c r="BG231" t="inlineStr"/>
+      <c r="BH231" t="inlineStr"/>
+      <c r="BI231" t="inlineStr"/>
+      <c r="BJ231" t="inlineStr"/>
+      <c r="BK231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -14450,6 +19910,26 @@
       <c r="AO232" t="inlineStr"/>
       <c r="AP232" t="inlineStr"/>
       <c r="AQ232" t="inlineStr"/>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr"/>
+      <c r="AT232" t="inlineStr"/>
+      <c r="AU232" t="inlineStr"/>
+      <c r="AV232" t="inlineStr"/>
+      <c r="AW232" t="inlineStr"/>
+      <c r="AX232" t="inlineStr"/>
+      <c r="AY232" t="inlineStr"/>
+      <c r="AZ232" t="inlineStr"/>
+      <c r="BA232" t="inlineStr"/>
+      <c r="BB232" t="inlineStr"/>
+      <c r="BC232" t="inlineStr"/>
+      <c r="BD232" t="inlineStr"/>
+      <c r="BE232" t="inlineStr"/>
+      <c r="BF232" t="inlineStr"/>
+      <c r="BG232" t="inlineStr"/>
+      <c r="BH232" t="inlineStr"/>
+      <c r="BI232" t="inlineStr"/>
+      <c r="BJ232" t="inlineStr"/>
+      <c r="BK232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -14503,6 +19983,26 @@
       <c r="AO233" t="inlineStr"/>
       <c r="AP233" t="inlineStr"/>
       <c r="AQ233" t="inlineStr"/>
+      <c r="AR233" t="inlineStr"/>
+      <c r="AS233" t="inlineStr"/>
+      <c r="AT233" t="inlineStr"/>
+      <c r="AU233" t="inlineStr"/>
+      <c r="AV233" t="inlineStr"/>
+      <c r="AW233" t="inlineStr"/>
+      <c r="AX233" t="inlineStr"/>
+      <c r="AY233" t="inlineStr"/>
+      <c r="AZ233" t="inlineStr"/>
+      <c r="BA233" t="inlineStr"/>
+      <c r="BB233" t="inlineStr"/>
+      <c r="BC233" t="inlineStr"/>
+      <c r="BD233" t="inlineStr"/>
+      <c r="BE233" t="inlineStr"/>
+      <c r="BF233" t="inlineStr"/>
+      <c r="BG233" t="inlineStr"/>
+      <c r="BH233" t="inlineStr"/>
+      <c r="BI233" t="inlineStr"/>
+      <c r="BJ233" t="inlineStr"/>
+      <c r="BK233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -14556,6 +20056,26 @@
       <c r="AO234" t="inlineStr"/>
       <c r="AP234" t="inlineStr"/>
       <c r="AQ234" t="inlineStr"/>
+      <c r="AR234" t="inlineStr"/>
+      <c r="AS234" t="inlineStr"/>
+      <c r="AT234" t="inlineStr"/>
+      <c r="AU234" t="inlineStr"/>
+      <c r="AV234" t="inlineStr"/>
+      <c r="AW234" t="inlineStr"/>
+      <c r="AX234" t="inlineStr"/>
+      <c r="AY234" t="inlineStr"/>
+      <c r="AZ234" t="inlineStr"/>
+      <c r="BA234" t="inlineStr"/>
+      <c r="BB234" t="inlineStr"/>
+      <c r="BC234" t="inlineStr"/>
+      <c r="BD234" t="inlineStr"/>
+      <c r="BE234" t="inlineStr"/>
+      <c r="BF234" t="inlineStr"/>
+      <c r="BG234" t="inlineStr"/>
+      <c r="BH234" t="inlineStr"/>
+      <c r="BI234" t="inlineStr"/>
+      <c r="BJ234" t="inlineStr"/>
+      <c r="BK234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -14609,6 +20129,26 @@
       <c r="AO235" t="inlineStr"/>
       <c r="AP235" t="inlineStr"/>
       <c r="AQ235" t="inlineStr"/>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr"/>
+      <c r="AT235" t="inlineStr"/>
+      <c r="AU235" t="inlineStr"/>
+      <c r="AV235" t="inlineStr"/>
+      <c r="AW235" t="inlineStr"/>
+      <c r="AX235" t="inlineStr"/>
+      <c r="AY235" t="inlineStr"/>
+      <c r="AZ235" t="inlineStr"/>
+      <c r="BA235" t="inlineStr"/>
+      <c r="BB235" t="inlineStr"/>
+      <c r="BC235" t="inlineStr"/>
+      <c r="BD235" t="inlineStr"/>
+      <c r="BE235" t="inlineStr"/>
+      <c r="BF235" t="inlineStr"/>
+      <c r="BG235" t="inlineStr"/>
+      <c r="BH235" t="inlineStr"/>
+      <c r="BI235" t="inlineStr"/>
+      <c r="BJ235" t="inlineStr"/>
+      <c r="BK235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -14662,6 +20202,26 @@
       <c r="AO236" t="inlineStr"/>
       <c r="AP236" t="inlineStr"/>
       <c r="AQ236" t="inlineStr"/>
+      <c r="AR236" t="inlineStr"/>
+      <c r="AS236" t="inlineStr"/>
+      <c r="AT236" t="inlineStr"/>
+      <c r="AU236" t="inlineStr"/>
+      <c r="AV236" t="inlineStr"/>
+      <c r="AW236" t="inlineStr"/>
+      <c r="AX236" t="inlineStr"/>
+      <c r="AY236" t="inlineStr"/>
+      <c r="AZ236" t="inlineStr"/>
+      <c r="BA236" t="inlineStr"/>
+      <c r="BB236" t="inlineStr"/>
+      <c r="BC236" t="inlineStr"/>
+      <c r="BD236" t="inlineStr"/>
+      <c r="BE236" t="inlineStr"/>
+      <c r="BF236" t="inlineStr"/>
+      <c r="BG236" t="inlineStr"/>
+      <c r="BH236" t="inlineStr"/>
+      <c r="BI236" t="inlineStr"/>
+      <c r="BJ236" t="inlineStr"/>
+      <c r="BK236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -14715,6 +20275,26 @@
       <c r="AO237" t="inlineStr"/>
       <c r="AP237" t="inlineStr"/>
       <c r="AQ237" t="inlineStr"/>
+      <c r="AR237" t="inlineStr"/>
+      <c r="AS237" t="inlineStr"/>
+      <c r="AT237" t="inlineStr"/>
+      <c r="AU237" t="inlineStr"/>
+      <c r="AV237" t="inlineStr"/>
+      <c r="AW237" t="inlineStr"/>
+      <c r="AX237" t="inlineStr"/>
+      <c r="AY237" t="inlineStr"/>
+      <c r="AZ237" t="inlineStr"/>
+      <c r="BA237" t="inlineStr"/>
+      <c r="BB237" t="inlineStr"/>
+      <c r="BC237" t="inlineStr"/>
+      <c r="BD237" t="inlineStr"/>
+      <c r="BE237" t="inlineStr"/>
+      <c r="BF237" t="inlineStr"/>
+      <c r="BG237" t="inlineStr"/>
+      <c r="BH237" t="inlineStr"/>
+      <c r="BI237" t="inlineStr"/>
+      <c r="BJ237" t="inlineStr"/>
+      <c r="BK237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -14768,6 +20348,26 @@
       <c r="AO238" t="inlineStr"/>
       <c r="AP238" t="inlineStr"/>
       <c r="AQ238" t="inlineStr"/>
+      <c r="AR238" t="inlineStr"/>
+      <c r="AS238" t="inlineStr"/>
+      <c r="AT238" t="inlineStr"/>
+      <c r="AU238" t="inlineStr"/>
+      <c r="AV238" t="inlineStr"/>
+      <c r="AW238" t="inlineStr"/>
+      <c r="AX238" t="inlineStr"/>
+      <c r="AY238" t="inlineStr"/>
+      <c r="AZ238" t="inlineStr"/>
+      <c r="BA238" t="inlineStr"/>
+      <c r="BB238" t="inlineStr"/>
+      <c r="BC238" t="inlineStr"/>
+      <c r="BD238" t="inlineStr"/>
+      <c r="BE238" t="inlineStr"/>
+      <c r="BF238" t="inlineStr"/>
+      <c r="BG238" t="inlineStr"/>
+      <c r="BH238" t="inlineStr"/>
+      <c r="BI238" t="inlineStr"/>
+      <c r="BJ238" t="inlineStr"/>
+      <c r="BK238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -14821,6 +20421,26 @@
       <c r="AO239" t="inlineStr"/>
       <c r="AP239" t="inlineStr"/>
       <c r="AQ239" t="inlineStr"/>
+      <c r="AR239" t="inlineStr"/>
+      <c r="AS239" t="inlineStr"/>
+      <c r="AT239" t="inlineStr"/>
+      <c r="AU239" t="inlineStr"/>
+      <c r="AV239" t="inlineStr"/>
+      <c r="AW239" t="inlineStr"/>
+      <c r="AX239" t="inlineStr"/>
+      <c r="AY239" t="inlineStr"/>
+      <c r="AZ239" t="inlineStr"/>
+      <c r="BA239" t="inlineStr"/>
+      <c r="BB239" t="inlineStr"/>
+      <c r="BC239" t="inlineStr"/>
+      <c r="BD239" t="inlineStr"/>
+      <c r="BE239" t="inlineStr"/>
+      <c r="BF239" t="inlineStr"/>
+      <c r="BG239" t="inlineStr"/>
+      <c r="BH239" t="inlineStr"/>
+      <c r="BI239" t="inlineStr"/>
+      <c r="BJ239" t="inlineStr"/>
+      <c r="BK239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -14874,6 +20494,26 @@
       <c r="AO240" t="inlineStr"/>
       <c r="AP240" t="inlineStr"/>
       <c r="AQ240" t="inlineStr"/>
+      <c r="AR240" t="inlineStr"/>
+      <c r="AS240" t="inlineStr"/>
+      <c r="AT240" t="inlineStr"/>
+      <c r="AU240" t="inlineStr"/>
+      <c r="AV240" t="inlineStr"/>
+      <c r="AW240" t="inlineStr"/>
+      <c r="AX240" t="inlineStr"/>
+      <c r="AY240" t="inlineStr"/>
+      <c r="AZ240" t="inlineStr"/>
+      <c r="BA240" t="inlineStr"/>
+      <c r="BB240" t="inlineStr"/>
+      <c r="BC240" t="inlineStr"/>
+      <c r="BD240" t="inlineStr"/>
+      <c r="BE240" t="inlineStr"/>
+      <c r="BF240" t="inlineStr"/>
+      <c r="BG240" t="inlineStr"/>
+      <c r="BH240" t="inlineStr"/>
+      <c r="BI240" t="inlineStr"/>
+      <c r="BJ240" t="inlineStr"/>
+      <c r="BK240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -14927,6 +20567,26 @@
       <c r="AO241" t="inlineStr"/>
       <c r="AP241" t="inlineStr"/>
       <c r="AQ241" t="inlineStr"/>
+      <c r="AR241" t="inlineStr"/>
+      <c r="AS241" t="inlineStr"/>
+      <c r="AT241" t="inlineStr"/>
+      <c r="AU241" t="inlineStr"/>
+      <c r="AV241" t="inlineStr"/>
+      <c r="AW241" t="inlineStr"/>
+      <c r="AX241" t="inlineStr"/>
+      <c r="AY241" t="inlineStr"/>
+      <c r="AZ241" t="inlineStr"/>
+      <c r="BA241" t="inlineStr"/>
+      <c r="BB241" t="inlineStr"/>
+      <c r="BC241" t="inlineStr"/>
+      <c r="BD241" t="inlineStr"/>
+      <c r="BE241" t="inlineStr"/>
+      <c r="BF241" t="inlineStr"/>
+      <c r="BG241" t="inlineStr"/>
+      <c r="BH241" t="inlineStr"/>
+      <c r="BI241" t="inlineStr"/>
+      <c r="BJ241" t="inlineStr"/>
+      <c r="BK241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -14980,6 +20640,26 @@
       <c r="AO242" t="inlineStr"/>
       <c r="AP242" t="inlineStr"/>
       <c r="AQ242" t="inlineStr"/>
+      <c r="AR242" t="inlineStr"/>
+      <c r="AS242" t="inlineStr"/>
+      <c r="AT242" t="inlineStr"/>
+      <c r="AU242" t="inlineStr"/>
+      <c r="AV242" t="inlineStr"/>
+      <c r="AW242" t="inlineStr"/>
+      <c r="AX242" t="inlineStr"/>
+      <c r="AY242" t="inlineStr"/>
+      <c r="AZ242" t="inlineStr"/>
+      <c r="BA242" t="inlineStr"/>
+      <c r="BB242" t="inlineStr"/>
+      <c r="BC242" t="inlineStr"/>
+      <c r="BD242" t="inlineStr"/>
+      <c r="BE242" t="inlineStr"/>
+      <c r="BF242" t="inlineStr"/>
+      <c r="BG242" t="inlineStr"/>
+      <c r="BH242" t="inlineStr"/>
+      <c r="BI242" t="inlineStr"/>
+      <c r="BJ242" t="inlineStr"/>
+      <c r="BK242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -15033,6 +20713,26 @@
       <c r="AO243" t="inlineStr"/>
       <c r="AP243" t="inlineStr"/>
       <c r="AQ243" t="inlineStr"/>
+      <c r="AR243" t="inlineStr"/>
+      <c r="AS243" t="inlineStr"/>
+      <c r="AT243" t="inlineStr"/>
+      <c r="AU243" t="inlineStr"/>
+      <c r="AV243" t="inlineStr"/>
+      <c r="AW243" t="inlineStr"/>
+      <c r="AX243" t="inlineStr"/>
+      <c r="AY243" t="inlineStr"/>
+      <c r="AZ243" t="inlineStr"/>
+      <c r="BA243" t="inlineStr"/>
+      <c r="BB243" t="inlineStr"/>
+      <c r="BC243" t="inlineStr"/>
+      <c r="BD243" t="inlineStr"/>
+      <c r="BE243" t="inlineStr"/>
+      <c r="BF243" t="inlineStr"/>
+      <c r="BG243" t="inlineStr"/>
+      <c r="BH243" t="inlineStr"/>
+      <c r="BI243" t="inlineStr"/>
+      <c r="BJ243" t="inlineStr"/>
+      <c r="BK243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -15086,6 +20786,26 @@
       <c r="AO244" t="inlineStr"/>
       <c r="AP244" t="inlineStr"/>
       <c r="AQ244" t="inlineStr"/>
+      <c r="AR244" t="inlineStr"/>
+      <c r="AS244" t="inlineStr"/>
+      <c r="AT244" t="inlineStr"/>
+      <c r="AU244" t="inlineStr"/>
+      <c r="AV244" t="inlineStr"/>
+      <c r="AW244" t="inlineStr"/>
+      <c r="AX244" t="inlineStr"/>
+      <c r="AY244" t="inlineStr"/>
+      <c r="AZ244" t="inlineStr"/>
+      <c r="BA244" t="inlineStr"/>
+      <c r="BB244" t="inlineStr"/>
+      <c r="BC244" t="inlineStr"/>
+      <c r="BD244" t="inlineStr"/>
+      <c r="BE244" t="inlineStr"/>
+      <c r="BF244" t="inlineStr"/>
+      <c r="BG244" t="inlineStr"/>
+      <c r="BH244" t="inlineStr"/>
+      <c r="BI244" t="inlineStr"/>
+      <c r="BJ244" t="inlineStr"/>
+      <c r="BK244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15221,6 +20941,66 @@
       <c r="AQ245" t="n">
         <v>0.6852036400470782</v>
       </c>
+      <c r="AR245" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>228</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>218</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>202</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>113.5008258936035</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>88.21972113552012</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>63.12108202093155</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>71</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>52.71514163954098</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>54.18640260792628</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>53.01093823543498</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>3009.901922941208</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>148270.5</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>0.006230625</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>71.22851733333333</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>0.6852036400470782</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15356,6 +21136,66 @@
       <c r="AQ246" t="n">
         <v>0.6549766339356375</v>
       </c>
+      <c r="AR246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>248</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>75.54136467739264</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>62.23474347331928</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>43.95999748699233</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>56</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>37.89096500832853</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>37.47317025613928</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>27.60828658893335</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>5081.022965312004</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>172932.5</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>0.007295375</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>41.84029066666667</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>0.6549766339356375</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15491,6 +21331,66 @@
       <c r="AQ247" t="n">
         <v>0.9848032652034218</v>
       </c>
+      <c r="AR247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>214</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>208</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>204</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>98.70078530192126</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>75.14430089463089</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>55.65772702425237</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>47</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>46.79946715556687</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>43.46632570423436</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>38.47385902589242</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>2725.235830903053</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>148826.5</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>0.00625025</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>85.18154133333333</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>0.9848032652034218</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15626,6 +21526,66 @@
       <c r="AQ248" t="n">
         <v>0.7149815258267617</v>
       </c>
+      <c r="AR248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>89.27736596780193</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>65.28778763489461</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>56.7122331460966</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>82</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>52.39772591627016</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>46.71005984051469</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>39.26795927485622</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>5337.442239284515</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>478910</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>0.020050375</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>37.164144</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>0.7149815258267617</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15761,6 +21721,66 @@
       <c r="AQ249" t="n">
         <v>0.773535702346509</v>
       </c>
+      <c r="AR249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>252</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>239</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>233</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>79.89334044318048</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>60.23562033416282</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>57.19134376110914</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>54.35553020103947</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>52.1639602840966</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>51.85760144877467</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>3504.921249270439</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>167295.5</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>0.0070325</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>23.17853866666667</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>0.773535702346509</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15896,6 +21916,66 @@
       <c r="AQ250" t="n">
         <v>0.9441263227228803</v>
       </c>
+      <c r="AR250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>140.4517493432559</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>111.7682407620322</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>103.180299767962</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>141</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>119</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>102</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>57.82855726518216</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>52.95813713739419</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>53.47460114681289</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>3391.576012969017</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>285558</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>0.01195925</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>39.646144</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>0.9441263227228803</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -16029,6 +22109,66 @@
         <v>70.681504</v>
       </c>
       <c r="AQ251" t="n">
+        <v>0.7060641371707909</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>255</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>255</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>255</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>127.0608238231098</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>101.6260057061341</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>77.42946683309557</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>125</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>96</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>63</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>62.59178457760959</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>60.36123553432195</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>59.83946465389452</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>5089.570098519325</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>558586</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>0.02336666666666667</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>70.681504</v>
+      </c>
+      <c r="BK251" t="n">
         <v>0.7060641371707909</v>
       </c>
     </row>
